--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158976.1355425205</v>
+        <v>160493.5786945682</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143925.3624265961</v>
+        <v>143461.5340072368</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116730</v>
+        <v>76490</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77500.6426971184</v>
+        <v>80382.73887655495</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21067.78 - 722572.09</t>
+          <t>24450.41 - 1066063.58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65833.98696117496</v>
+        <v>66141.50144661083</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>302216.8529935636</v>
+        <v>310674.5218640249</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4848.622754943077</v>
+        <v>4922.417483545014</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4275.421384235897</v>
+        <v>4380.323042899374</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2960</v>
+        <v>3470</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2570.335392574094</v>
+        <v>2578.05816739801</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>621.66 - 29053.28</t>
+          <t>606.26 - 28869.15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1910.871433504601</v>
+        <v>1917.150893480738</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9663.26450729665</v>
+        <v>9672.778574038353</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,11 +701,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1016.65</v>
+        <v>21.5085</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -716,11 +716,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1901.181474816742</v>
+        <v>34.98754384032204</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1464.820203122024</v>
+        <v>26.09127594872671</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -746,11 +746,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -761,11 +761,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1549.33780334746</v>
+        <v>30.32577627553396</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -777,12 +777,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>70.49 - 20497.92</t>
+          <t>1.15 - 459.50</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -793,11 +793,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>467.0129699287242</v>
+        <v>7.654385856472596</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -808,253 +808,9 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4707.199614452577</v>
+        <v>90.69344465579479</v>
       </c>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>bnb</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Precio inicial</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>213.43</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Precio promedio a 180 días</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>294.8089212611218</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mediana a 180 días</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>230.7713790053743</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Moda</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>120</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Desviación estándar</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>229.4101128569117</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Rango (min - max)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>11.13 - 3034.02</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Percentil 5 (escenario de riesgo)</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>70.91479973744902</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Percentil 95 (escenario alcista)</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>731.548954003908</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Precio inicial</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>21.5085</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Precio promedio a 180 días</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>34.74664013062244</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mediana a 180 días</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>26.28437254547622</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Moda</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>20</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Desviación estándar</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>29.57903336392902</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Rango (min - max)</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1.45 - 381.35</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Percentil 5 (escenario de riesgo)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>7.511399660322454</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Percentil 95 (escenario alcista)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>89.97837452560898</v>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>link</t>
         </is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160493.5786945682</v>
+        <v>160538.9619641146</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143461.5340072368</v>
+        <v>142445.9158447555</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76490</v>
+        <v>89120</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80382.73887655495</v>
+        <v>81277.19174460205</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24450.41 - 1066063.58</t>
+          <t>21950.52 - 1104313.66</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66141.50144661083</v>
+        <v>65114.68435218996</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>310674.5218640249</v>
+        <v>313709.9989128431</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4922.417483545014</v>
+        <v>4865.481351105304</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4380.323042899374</v>
+        <v>4300.461809405459</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3470</v>
+        <v>3170</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.05816739801</v>
+        <v>2551.954152844658</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>606.26 - 28869.15</t>
+          <t>611.66 - 32504.61</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1917.150893480738</v>
+        <v>1919.673174401041</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9672.778574038353</v>
+        <v>9743.665509353788</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.98754384032204</v>
+        <v>34.87575113950029</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.09127594872671</v>
+        <v>26.74041051796682</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.32577627553396</v>
+        <v>28.95312865814892</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.15 - 459.50</t>
+          <t>1.10 - 393.46</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.654385856472596</v>
+        <v>7.600425316605119</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.69344465579479</v>
+        <v>90.90670903749032</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160538.9619641146</v>
+        <v>159546.0284837273</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142445.9158447555</v>
+        <v>144029.5149157758</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89120</v>
+        <v>97220</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81277.19174460205</v>
+        <v>77780.24455960568</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21950.52 - 1104313.66</t>
+          <t>22828.03 - 738967.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65114.68435218996</v>
+        <v>65955.31418113907</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>313709.9989128431</v>
+        <v>307481.0372616347</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4865.481351105304</v>
+        <v>4867.090130945206</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4300.461809405459</v>
+        <v>4276.863444140863</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3170</v>
+        <v>3570</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2551.954152844658</v>
+        <v>2600.548683161187</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>611.66 - 32504.61</t>
+          <t>794.79 - 26058.03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1919.673174401041</v>
+        <v>1909.165187878139</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9743.665509353788</v>
+        <v>9737.045614948043</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.87575113950029</v>
+        <v>35.30196060829063</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.74041051796682</v>
+        <v>26.60849526876949</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.95312865814892</v>
+        <v>30.82563905865503</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.10 - 393.46</t>
+          <t>1.23 - 513.59</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.600425316605119</v>
+        <v>7.612109789683906</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.90670903749032</v>
+        <v>90.7387890315802</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159546.0284837273</v>
+        <v>160061.4681907964</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144029.5149157758</v>
+        <v>142793.8532114561</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97220</v>
+        <v>110640</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77780.24455960568</v>
+        <v>81814.14660191063</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22828.03 - 738967.00</t>
+          <t>21557.54 - 862611.23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65955.31418113907</v>
+        <v>65451.73413797388</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307481.0372616347</v>
+        <v>314990.5006556247</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4867.090130945206</v>
+        <v>4843.046034445943</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4276.863444140863</v>
+        <v>4303.235682460856</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3570</v>
+        <v>2740</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2600.548683161187</v>
+        <v>2495.03614046237</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>794.79 - 26058.03</t>
+          <t>638.59 - 25528.56</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1909.165187878139</v>
+        <v>1917.047345690403</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9737.045614948043</v>
+        <v>9669.30392459112</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.30196060829063</v>
+        <v>34.4693583053752</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.60849526876949</v>
+        <v>26.08040408496989</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.82563905865503</v>
+        <v>28.81566931401512</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.23 - 513.59</t>
+          <t>1.60 - 401.93</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.612109789683906</v>
+        <v>7.470920064482103</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.7387890315802</v>
+        <v>88.61015813278121</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160061.4681907964</v>
+        <v>159874.0609537256</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142793.8532114561</v>
+        <v>142003.6708524292</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110640</v>
+        <v>104390</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81814.14660191063</v>
+        <v>80503.95289828876</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21557.54 - 862611.23</t>
+          <t>24075.54 - 906307.87</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65451.73413797388</v>
+        <v>66122.84665210699</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>314990.5006556247</v>
+        <v>313612.4555267032</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4843.046034445943</v>
+        <v>4814.201613698413</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4303.235682460856</v>
+        <v>4244.236907431905</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2740</v>
+        <v>2930</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2495.03614046237</v>
+        <v>2558.966833807945</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>638.59 - 25528.56</t>
+          <t>700.35 - 29798.96</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1917.047345690403</v>
+        <v>1855.096650344992</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9669.30392459112</v>
+        <v>9535.822324695695</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.4693583053752</v>
+        <v>35.04330655724091</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.08040408496989</v>
+        <v>26.41553112196585</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.81566931401512</v>
+        <v>30.32419054840888</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.60 - 401.93</t>
+          <t>1.47 - 367.38</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.470920064482103</v>
+        <v>7.573017426984373</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.61015813278121</v>
+        <v>92.4014880100967</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159874.0609537256</v>
+        <v>159871.9294929295</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142003.6708524292</v>
+        <v>143508.89591002</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104390</v>
+        <v>131670</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80503.95289828876</v>
+        <v>80689.03987007006</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24075.54 - 906307.87</t>
+          <t>21828.01 - 796597.79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66122.84665210699</v>
+        <v>65141.49280943177</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>313612.4555267032</v>
+        <v>312083.9044028905</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4814.201613698413</v>
+        <v>4851.510641910476</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4244.236907431905</v>
+        <v>4264.549772420647</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2930</v>
+        <v>2870</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2558.966833807945</v>
+        <v>2564.051801841061</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>700.35 - 29798.96</t>
+          <t>479.46 - 31545.17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1855.096650344992</v>
+        <v>1870.296057098636</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9535.822324695695</v>
+        <v>9794.71880976789</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.04330655724091</v>
+        <v>35.18267249431746</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.41553112196585</v>
+        <v>26.49371490885309</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.32419054840888</v>
+        <v>30.38001178786214</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.47 - 367.38</t>
+          <t>1.45 - 516.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.573017426984373</v>
+        <v>7.632685539571129</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.4014880100967</v>
+        <v>92.29858314397893</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159871.9294929295</v>
+        <v>160738.5188664328</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143508.89591002</v>
+        <v>144246.8927415453</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131670</v>
+        <v>96300</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80689.03987007006</v>
+        <v>79713.10631901024</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21828.01 - 796597.79</t>
+          <t>21907.00 - 759112.56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65141.49280943177</v>
+        <v>64400.6180477942</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>312083.9044028905</v>
+        <v>309699.9602078727</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4851.510641910476</v>
+        <v>4857.057233260316</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4264.549772420647</v>
+        <v>4298.289886009441</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2870</v>
+        <v>3130</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2564.051801841061</v>
+        <v>2556.186257189187</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>479.46 - 31545.17</t>
+          <t>550.15 - 28736.09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1870.296057098636</v>
+        <v>1887.863359179729</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9794.71880976789</v>
+        <v>9678.061974702017</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.18267249431746</v>
+        <v>34.68604176079127</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.49371490885309</v>
+        <v>26.47184392075371</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.38001178786214</v>
+        <v>29.90520793827482</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.45 - 516.00</t>
+          <t>1.80 - 392.66</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.632685539571129</v>
+        <v>7.419136466269604</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.29858314397893</v>
+        <v>91.11296725130141</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160738.5188664328</v>
+        <v>159883.3162890602</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144246.8927415453</v>
+        <v>143204.8974258775</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96300</v>
+        <v>153510</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79713.10631901024</v>
+        <v>80825.19502350081</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21907.00 - 759112.56</t>
+          <t>26884.75 - 1330725.21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64400.6180477942</v>
+        <v>64980.36898128839</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>309699.9602078727</v>
+        <v>312768.811237985</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4857.057233260316</v>
+        <v>4856.107807832112</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4298.289886009441</v>
+        <v>4329.09311884712</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3130</v>
+        <v>3240</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2556.186257189187</v>
+        <v>2521.056147621977</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>550.15 - 28736.09</t>
+          <t>609.24 - 32078.24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1887.863359179729</v>
+        <v>1894.805332554832</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9678.061974702017</v>
+        <v>9648.850771537873</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.68604176079127</v>
+        <v>34.70809025912487</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.47184392075371</v>
+        <v>26.02618275922546</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.90520793827482</v>
+        <v>31.48826614768434</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.80 - 392.66</t>
+          <t>1.64 - 978.87</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.419136466269604</v>
+        <v>7.520972548677331</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.11296725130141</v>
+        <v>90.42901553088926</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159883.3162890602</v>
+        <v>158677.9932818851</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143204.8974258775</v>
+        <v>141954.7746339694</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153510</v>
+        <v>66440</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80825.19502350081</v>
+        <v>78887.06706239596</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26884.75 - 1330725.21</t>
+          <t>27407.67 - 1522277.42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64980.36898128839</v>
+        <v>66039.15709233211</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>312768.811237985</v>
+        <v>307982.359651114</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4856.107807832112</v>
+        <v>4879.872670644949</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4329.09311884712</v>
+        <v>4373.880812167914</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3240</v>
+        <v>2990</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2521.056147621977</v>
+        <v>2533.346406246009</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>609.24 - 32078.24</t>
+          <t>559.46 - 27877.17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1894.805332554832</v>
+        <v>1898.620188090376</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9648.850771537873</v>
+        <v>9599.148892255527</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.70809025912487</v>
+        <v>35.01380336611878</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.02618275922546</v>
+        <v>26.25679920938998</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.48826614768434</v>
+        <v>30.75928585614667</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.64 - 978.87</t>
+          <t>1.93 - 671.83</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.520972548677331</v>
+        <v>7.628544980162611</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.42901553088926</v>
+        <v>94.7801565124103</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158677.9932818851</v>
+        <v>161082.1529762694</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141954.7746339694</v>
+        <v>144317.5367942839</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66440</v>
+        <v>117920</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78887.06706239596</v>
+        <v>79519.72568425386</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27407.67 - 1522277.42</t>
+          <t>24628.05 - 919881.30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66039.15709233211</v>
+        <v>65909.35862586205</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307982.359651114</v>
+        <v>307776.6120547238</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4879.872670644949</v>
+        <v>4910.873882388873</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4373.880812167914</v>
+        <v>4348.912745804098</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2990</v>
+        <v>3250</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2533.346406246009</v>
+        <v>2629.615044808528</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>559.46 - 27877.17</t>
+          <t>813.00 - 29621.13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1898.620188090376</v>
+        <v>1891.204555234807</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9599.148892255527</v>
+        <v>9916.496972582807</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.01380336611878</v>
+        <v>35.02385668291553</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.25679920938998</v>
+        <v>26.52957411148451</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.75928585614667</v>
+        <v>31.01279553463586</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.93 - 671.83</t>
+          <t>1.44 - 594.42</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.628544980162611</v>
+        <v>7.849912458470463</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.7801565124103</v>
+        <v>90.26081969237678</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161082.1529762694</v>
+        <v>160011.8587475122</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144317.5367942839</v>
+        <v>143734.2080513075</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117920</v>
+        <v>108860</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79519.72568425386</v>
+        <v>80301.43974209898</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24628.05 - 919881.30</t>
+          <t>24235.42 - 907663.83</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65909.35862586205</v>
+        <v>64966.57530863793</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307776.6120547238</v>
+        <v>309490.6957934946</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4910.873882388873</v>
+        <v>4838.543664623786</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4348.912745804098</v>
+        <v>4273.837522886875</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2629.615044808528</v>
+        <v>2521.529733213685</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>813.00 - 29621.13</t>
+          <t>656.37 - 23705.33</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1891.204555234807</v>
+        <v>1905.954355673248</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9916.496972582807</v>
+        <v>9669.919708155252</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.02385668291553</v>
+        <v>35.01675885691021</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.52957411148451</v>
+        <v>26.43173236610487</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.01279553463586</v>
+        <v>30.72760077261036</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.44 - 594.42</t>
+          <t>0.92 - 439.61</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.849912458470463</v>
+        <v>7.4276949980829</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.26081969237678</v>
+        <v>89.89384545599866</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160011.8587475122</v>
+        <v>158895.5845789296</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143734.2080513075</v>
+        <v>142374.493589116</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108860</v>
+        <v>78740</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80301.43974209898</v>
+        <v>78838.19943844882</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24235.42 - 907663.83</t>
+          <t>25756.28 - 692402.59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64966.57530863793</v>
+        <v>66315.80621991235</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>309490.6957934946</v>
+        <v>305272.441743075</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4838.543664623786</v>
+        <v>4876.920057688137</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4273.837522886875</v>
+        <v>4333.894198123864</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3250</v>
+        <v>3790</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2521.529733213685</v>
+        <v>2581.905389488606</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>656.37 - 23705.33</t>
+          <t>669.89 - 31065.52</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1905.954355673248</v>
+        <v>1882.50837618914</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9669.919708155252</v>
+        <v>9708.957704767377</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.01675885691021</v>
+        <v>35.05350183624736</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.43173236610487</v>
+        <v>26.49634436726583</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.72760077261036</v>
+        <v>29.86176216643602</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.92 - 439.61</t>
+          <t>1.22 - 588.95</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.4276949980829</v>
+        <v>7.739667549458672</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.89384545599866</v>
+        <v>91.12328130268597</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -468,11 +468,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Precio promedio a 180 días</t>
+          <t>Precio promedio a 365 días</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158895.5845789296</v>
+        <v>232033.6194562802</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -483,11 +483,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mediana a 180 días</t>
+          <t>Mediana a 365 días</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142374.493589116</v>
+        <v>184423.9308993233</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78740</v>
+        <v>68530</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78838.19943844882</v>
+        <v>175904.0614126381</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25756.28 - 692402.59</t>
+          <t>8214.87 - 2093791.32</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66315.80621991235</v>
+        <v>60272.87525252763</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305272.441743075</v>
+        <v>564488.1927866074</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -590,11 +590,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Precio promedio a 180 días</t>
+          <t>Precio promedio a 365 días</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4876.920057688137</v>
+        <v>5704.205877961404</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -605,11 +605,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mediana a 180 días</t>
+          <t>Mediana a 365 días</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4333.894198123864</v>
+        <v>4428.806862870569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3790</v>
+        <v>2020</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2581.905389488606</v>
+        <v>4535.323082389874</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>669.89 - 31065.52</t>
+          <t>325.28 - 52791.71</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1882.50837618914</v>
+        <v>1421.914493176545</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9708.957704767377</v>
+        <v>14182.80674239925</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -712,11 +712,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Precio promedio a 180 días</t>
+          <t>Precio promedio a 365 días</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.05350183624736</v>
+        <v>58.57399914103532</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,11 +727,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mediana a 180 días</t>
+          <t>Mediana a 365 días</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.49634436726583</v>
+        <v>33.37026939792242</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.86176216643602</v>
+        <v>84.83171486663538</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.22 - 588.95</t>
+          <t>0.71 - 1970.81</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.739667549458672</v>
+        <v>5.665922873111586</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.12328130268597</v>
+        <v>189.6108560993206</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>232033.6194562802</v>
+        <v>232197.5152939617</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184423.9308993233</v>
+        <v>187077.9968585763</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68530</v>
+        <v>108440</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175904.0614126381</v>
+        <v>175848.5813116182</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8214.87 - 2093791.32</t>
+          <t>10723.71 - 2512782.39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60272.87525252763</v>
+        <v>61008.24065580327</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>564488.1927866074</v>
+        <v>556835.7922327778</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5704.205877961404</v>
+        <v>5655.808406829099</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4428.806862870569</v>
+        <v>4435.147887001069</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2020</v>
+        <v>3270</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4535.323082389874</v>
+        <v>4565.880325913149</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>325.28 - 52791.71</t>
+          <t>329.08 - 92605.72</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1421.914493176545</v>
+        <v>1386.84652651118</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14182.80674239925</v>
+        <v>13976.45096660785</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.57399914103532</v>
+        <v>58.7871394830824</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.37026939792242</v>
+        <v>32.873236748948</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.83171486663538</v>
+        <v>87.85156506780916</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.71 - 1970.81</t>
+          <t>0.59 - 2219.11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.665922873111586</v>
+        <v>5.615048291585599</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.6108560993206</v>
+        <v>188.6083641617925</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112234.05</v>
+        <v>113060.73</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>232197.5152939617</v>
+        <v>235174.5874014041</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187077.9968585763</v>
+        <v>188948.3895407576</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108440</v>
+        <v>232330</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175848.5813116182</v>
+        <v>174299.3329973909</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10723.71 - 2512782.39</t>
+          <t>14727.47 - 1855342.12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61008.24065580327</v>
+        <v>61597.16918829986</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>556835.7922327778</v>
+        <v>564107.3885353163</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4174.64</v>
+        <v>4130.48</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5655.808406829099</v>
+        <v>5617.452432780765</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4435.147887001069</v>
+        <v>4396.389172441164</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3270</v>
+        <v>1900</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4565.880325913149</v>
+        <v>4421.453653985322</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>329.08 - 92605.72</t>
+          <t>249.50 - 55779.87</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1386.84652651118</v>
+        <v>1395.626470538133</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13976.45096660785</v>
+        <v>13943.32891923804</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.5085</v>
+        <v>21.4265</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.7871394830824</v>
+        <v>58.43006063242537</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.873236748948</v>
+        <v>32.14852869389515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.85156506780916</v>
+        <v>92.60666431119361</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.59 - 2219.11</t>
+          <t>0.37 - 2831.83</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.615048291585599</v>
+        <v>5.535739989609588</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.6083641617925</v>
+        <v>188.9090082455621</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113060.73</v>
+        <v>109580</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>235174.5874014041</v>
+        <v>226690.0973693276</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188948.3895407576</v>
+        <v>180700.9112965357</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232330</v>
+        <v>120010</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174299.3329973909</v>
+        <v>169758.5681320555</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14727.47 - 1855342.12</t>
+          <t>17209.14 - 2134658.13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61597.16918829986</v>
+        <v>59855.95521402981</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>564107.3885353163</v>
+        <v>549939.0668445779</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4130.48</v>
+        <v>3930.39</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5617.452432780765</v>
+        <v>5280.90907804852</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4396.389172441164</v>
+        <v>4084.708386050768</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1900</v>
+        <v>2330</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4421.453653985322</v>
+        <v>4313.837505629055</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>249.50 - 55779.87</t>
+          <t>370.49 - 89602.43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1395.626470538133</v>
+        <v>1288.995102764602</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13943.32891923804</v>
+        <v>13044.30942020445</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.4265</v>
+        <v>20.4253</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.43006063242537</v>
+        <v>54.25884778863365</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.14852869389515</v>
+        <v>29.98528091136154</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.60666431119361</v>
+        <v>78.37890286447248</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.37 - 2831.83</t>
+          <t>0.59 - 1512.60</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.535739989609588</v>
+        <v>5.135928790828691</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.9090082455621</v>
+        <v>180.9170405659606</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109580</v>
+        <v>109635.6015625</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,11 +468,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Precio promedio a 365 días</t>
+          <t>Precio promedio a 270 días</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226690.0973693276</v>
+        <v>187998.3965411472</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -483,11 +483,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mediana a 365 días</t>
+          <t>Mediana a 270 días</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180700.9112965357</v>
+        <v>158584.1593981379</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120010</v>
+        <v>79160</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169758.5681320555</v>
+        <v>121787.4642141412</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17209.14 - 2134658.13</t>
+          <t>14681.98 - 2417793.24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59855.95521402981</v>
+        <v>59692.50085671561</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549939.0668445779</v>
+        <v>416815.4978000639</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3930.39</v>
+        <v>4026.30029296875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -590,11 +590,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Precio promedio a 365 días</t>
+          <t>Precio promedio a 270 días</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5280.90907804852</v>
+        <v>6636.694126959551</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -605,11 +605,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mediana a 365 días</t>
+          <t>Mediana a 270 días</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4084.708386050768</v>
+        <v>5069.430700181765</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2330</v>
+        <v>4960</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4313.837505629055</v>
+        <v>5575.99367896196</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>370.49 - 89602.43</t>
+          <t>371.75 - 69267.55</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1288.995102764602</v>
+        <v>1457.942420605488</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13044.30942020445</v>
+        <v>16819.07353884339</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.4253</v>
+        <v>21.05480194091797</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,11 +712,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Precio promedio a 365 días</t>
+          <t>Precio promedio a 270 días</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.25884778863365</v>
+        <v>54.21937838368488</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,11 +727,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mediana a 365 días</t>
+          <t>Mediana a 270 días</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.98528091136154</v>
+        <v>31.82705778323907</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.37890286447248</v>
+        <v>79.10137818511154</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.59 - 1512.60</t>
+          <t>0.57 - 2005.94</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.135928790828691</v>
+        <v>5.583819549071917</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,11 +808,133 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.9170405659606</v>
+        <v>171.0485413755913</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Precio inicial</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>268.4303588867188</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Precio promedio a 270 días</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.398452764318451e+65</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mediana a 270 días</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5.977256432610694e+18</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Moda</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.358663159208301e+68</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Desviación estándar</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.089808222397811e+67</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rango (min - max)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-135866315920830147901400871015523920508223227170601811552948386267136.00 - 788150610141753908911017814382290522434391812416965279284589494272000.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Percentil 5 (escenario de riesgo)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.370878537729693e+51</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Percentil 95 (escenario alcista)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.467198506402458e+50</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>aave</t>
         </is>
       </c>
     </row>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109635.6015625</v>
+        <v>109476.79</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187998.3965411472</v>
+        <v>292999.572966422</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158584.1593981379</v>
+        <v>216520.3085731609</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79160</v>
+        <v>97750</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121787.4642141412</v>
+        <v>262911.4143415979</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14681.98 - 2417793.24</t>
+          <t>11239.21 - 3773553.10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59692.50085671561</v>
+        <v>59135.70549849886</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>416815.4978000639</v>
+        <v>783718.5466151801</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4026.30029296875</v>
+        <v>4005.4951171875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6636.694126959551</v>
+        <v>6773.742899255201</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5069.430700181765</v>
+        <v>5146.98152418405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4960</v>
+        <v>3060</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5575.99367896196</v>
+        <v>5831.581929953488</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>371.75 - 69267.55</t>
+          <t>230.06 - 96627.29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1457.942420605488</v>
+        <v>1487.925673971744</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16819.07353884339</v>
+        <v>17352.0001966649</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.05480194091797</v>
+        <v>20.71742630004883</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.21937838368488</v>
+        <v>53.73052439020687</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.82705778323907</v>
+        <v>30.84057769003131</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.10137818511154</v>
+        <v>77.56988278860791</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.57 - 2005.94</t>
+          <t>0.94 - 2332.17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.583819549071917</v>
+        <v>5.588501946081307</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0485413755913</v>
+        <v>173.8296839105026</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>268.4303588867188</v>
+        <v>266.1372375488281</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.398452764318451e+65</v>
+        <v>-1.139840580640613e+70</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.977256432610694e+18</v>
+        <v>3.591798664963338e+22</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.358663159208301e+68</v>
+        <v>-1.139853953495928e+74</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.089808222397811e+67</v>
+        <v>1.139796960826026e+72</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-135866315920830147901400871015523920508223227170601811552948386267136.00 - 788150610141753908911017814382290522434391812416965279284589494272000.00</t>
+          <t>-113985395349592842693122728061474008493423468488753205691635230731508121600.00 - 1301818172726205892028563539282468952152244053826944007920130046558208.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.370878537729693e+51</v>
+        <v>-1.265094162917678e+51</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.467198506402458e+50</v>
+        <v>9.539334082636994e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>292999.572966422</v>
+        <v>292178.1344210806</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216520.3085731609</v>
+        <v>216479.6568877766</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97750</v>
+        <v>117790</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262911.4143415979</v>
+        <v>265011.0425467789</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11239.21 - 3773553.10</t>
+          <t>9933.30 - 3813956.85</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59135.70549849886</v>
+        <v>60206.78032516763</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>783718.5466151801</v>
+        <v>775606.242719522</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4005.4951171875</v>
+        <v>3998.38330078125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6773.742899255201</v>
+        <v>6808.107266100607</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5146.98152418405</v>
+        <v>5168.052453513876</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3060</v>
+        <v>2790</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5831.581929953488</v>
+        <v>5912.64076305022</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>230.06 - 96627.29</t>
+          <t>337.96 - 97122.56</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1487.925673971744</v>
+        <v>1516.246673589778</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17352.0001966649</v>
+        <v>17670.38251971423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.71742630004883</v>
+        <v>20.62825012207031</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.73052439020687</v>
+        <v>53.32716528865276</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.84057769003131</v>
+        <v>30.92741940679074</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.56988278860791</v>
+        <v>73.50754867576795</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.94 - 2332.17</t>
+          <t>0.60 - 1534.73</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.588501946081307</v>
+        <v>5.54534975633308</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.8296839105026</v>
+        <v>170.6412089246752</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>266.1372375488281</v>
+        <v>263.1943359375</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.139840580640613e+70</v>
+        <v>-3.156785372838251e+65</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.591798664963338e+22</v>
+        <v>-1.776853958915533e+23</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.139853953495928e+74</v>
+        <v>-3.324570734446354e+69</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.139796960826026e+72</v>
+        <v>3.326625749692654e+67</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-113985395349592842693122728061474008493423468488753205691635230731508121600.00 - 1301818172726205892028563539282468952152244053826944007920130046558208.00</t>
+          <t>-3324570734446354008092916085406143498147866860918388762731154157600768.00 - 114418560309014353493854863795314795900195069495600590154268107866112.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.265094162917678e+51</v>
+        <v>-1.611925670942814e+51</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.539334082636994e+50</v>
+        <v>9.841775658661051e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109476.79</v>
+        <v>110938.3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>292178.1344210806</v>
+        <v>301741.6258940953</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216479.6568877766</v>
+        <v>221903.552220648</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117790</v>
+        <v>102980</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>265011.0425467789</v>
+        <v>274815.7360787212</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9933.30 - 3813956.85</t>
+          <t>12751.11 - 5529712.33</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60206.78032516763</v>
+        <v>61609.86404432965</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>775606.242719522</v>
+        <v>793087.125964076</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3998.38330078125</v>
+        <v>4122.443359375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6808.107266100607</v>
+        <v>6889.446193915033</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5168.052453513876</v>
+        <v>5297.841183561973</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2790</v>
+        <v>3240</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5912.64076305022</v>
+        <v>5842.262535846684</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>337.96 - 97122.56</t>
+          <t>442.18 - 124917.38</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1516.246673589778</v>
+        <v>1504.989843860034</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17670.38251971423</v>
+        <v>17643.92585691886</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.62825012207031</v>
+        <v>21.22975540161133</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.32716528865276</v>
+        <v>54.8572631592128</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.92741940679074</v>
+        <v>32.25461375684545</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.50754867576795</v>
+        <v>78.03933340911843</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.60 - 1534.73</t>
+          <t>0.50 - 2178.46</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.54534975633308</v>
+        <v>5.639958409915837</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.6412089246752</v>
+        <v>173.784420935217</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>263.1943359375</v>
+        <v>272.36669921875</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.156785372838251e+65</v>
+        <v>-8.807768730307625e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.776853958915533e+23</v>
+        <v>1.682440820265173e+18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.324570734446354e+69</v>
+        <v>-7.777237353917295e+68</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.326625749692654e+67</v>
+        <v>7.831331363513435e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-3324570734446354008092916085406143498147866860918388762731154157600768.00 - 114418560309014353493854863795314795900195069495600590154268107866112.00</t>
+          <t>-777723735391729446209549771576294397202626275453565447981104304750592.00 - 26881007569813263000689804184428081473218622207635427280577101824.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.611925670942814e+51</v>
+        <v>-9.54721725191812e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.841775658661051e+50</v>
+        <v>8.627705907901871e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110938.3</v>
+        <v>114180.6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301741.6258940953</v>
+        <v>307986.1545053504</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221903.552220648</v>
+        <v>227801.0523346973</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102980</v>
+        <v>134760</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274815.7360787212</v>
+        <v>279941.4642836846</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12751.11 - 5529712.33</t>
+          <t>12215.08 - 4224119.70</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61609.86404432965</v>
+        <v>61891.66594123959</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>793087.125964076</v>
+        <v>818272.0340705513</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4122.443359375</v>
+        <v>4162.91845703125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6889.446193915033</v>
+        <v>6948.306172134295</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5297.841183561973</v>
+        <v>5320.274587744532</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3240</v>
+        <v>2810</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5842.262535846684</v>
+        <v>5883.108329392588</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>442.18 - 124917.38</t>
+          <t>357.37 - 97783.31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1504.989843860034</v>
+        <v>1515.662348872713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17643.92585691886</v>
+        <v>17618.37151000992</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.22975540161133</v>
+        <v>21.42091560363769</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.8572631592128</v>
+        <v>55.04014114154764</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.25461375684545</v>
+        <v>31.72643322958348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.03933340911843</v>
+        <v>76.0771951293803</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.50 - 2178.46</t>
+          <t>0.50 - 1503.46</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.639958409915837</v>
+        <v>5.707665950536945</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.784420935217</v>
+        <v>176.94148451202</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>272.36669921875</v>
+        <v>271.4784240722656</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-8.807768730307625e+64</v>
+        <v>-8.898396677892675e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.682440820265173e+18</v>
+        <v>-2.375448130233549e+22</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-7.777237353917295e+68</v>
+        <v>-9.531666458574445e+68</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.831331363513435e+66</v>
+        <v>9.547028863810286e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-777723735391729446209549771576294397202626275453565447981104304750592.00 - 26881007569813263000689804184428081473218622207635427280577101824.00</t>
+          <t>-953166645857444513028445742310311376628335153380407632192989246259200.00 - 53283752672486609565257078034233976905621151068200308678410914234368.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-9.54721725191812e+50</v>
+        <v>-2.715951612059555e+51</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.627705907901871e+50</v>
+        <v>6.50724356589813e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114180.6</v>
+        <v>114178.92</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307986.1545053504</v>
+        <v>304479.7575747656</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227801.0523346973</v>
+        <v>224947.282321152</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>134760</v>
+        <v>166950</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279941.4642836846</v>
+        <v>283726.917975175</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12215.08 - 4224119.70</t>
+          <t>6732.00 - 6422379.60</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61891.66594123959</v>
+        <v>64389.11351794213</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>818272.0340705513</v>
+        <v>804690.2873664476</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4162.91845703125</v>
+        <v>4283.19189453125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6948.306172134295</v>
+        <v>7256.14837662318</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5320.274587744532</v>
+        <v>5440.684005715528</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2810</v>
+        <v>3040</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5883.108329392588</v>
+        <v>6247.52229233457</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>357.37 - 97783.31</t>
+          <t>209.94 - 94593.87</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1515.662348872713</v>
+        <v>1609.954231156757</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17618.37151000992</v>
+        <v>18764.62591274404</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.42091560363769</v>
+        <v>22.17141151428223</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.04014114154764</v>
+        <v>57.18462979035813</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.72643322958348</v>
+        <v>32.96090532181526</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.0771951293803</v>
+        <v>77.46584604325085</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.50 - 1503.46</t>
+          <t>0.81 - 1133.68</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.707665950536945</v>
+        <v>5.751481149350715</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.94148451202</v>
+        <v>188.4308806211387</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>271.4784240722656</v>
+        <v>283.7916564941406</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-8.898396677892675e+64</v>
+        <v>1.653777487981023e+65</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-2.375448130233549e+22</v>
+        <v>-1.230589371205634e+24</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.531666458574445e+68</v>
+        <v>-3.53281559288696e+67</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.547028863810286e+66</v>
+        <v>1.692828710917523e+67</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-953166645857444513028445742310311376628335153380407632192989246259200.00 - 53283752672486609565257078034233976905621151068200308678410914234368.00</t>
+          <t>-35328155928869600286358256700649644230345063099833701086179612426240.00 - 1692536954060587298723967612849746100388032812136340586317731208364032.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.715951612059555e+51</v>
+        <v>-1.505552635858529e+51</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.50724356589813e+50</v>
+        <v>4.618115954597519e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114178.92</v>
+        <v>117570</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304479.7575747656</v>
+        <v>320677.6855217527</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224947.282321152</v>
+        <v>234438.8712118763</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166950</v>
+        <v>173470</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283726.917975175</v>
+        <v>297616.4002198531</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6732.00 - 6422379.60</t>
+          <t>12512.01 - 4068659.64</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64389.11351794213</v>
+        <v>63477.03948035104</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>804690.2873664476</v>
+        <v>862278.2916839507</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4283.19189453125</v>
+        <v>4382.35205078125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7256.14837662318</v>
+        <v>7273.531082254647</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5440.684005715528</v>
+        <v>5575.234281440389</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3040</v>
+        <v>3210</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6247.52229233457</v>
+        <v>6067.539273873419</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>209.94 - 94593.87</t>
+          <t>430.50 - 86670.48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1609.954231156757</v>
+        <v>1641.487882081337</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18764.62591274404</v>
+        <v>18378.1517892661</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.17141151428223</v>
+        <v>22.50534820556641</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.18462979035813</v>
+        <v>59.40395608755239</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.96090532181526</v>
+        <v>33.71256614122939</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.46584604325085</v>
+        <v>82.35563105485714</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.81 - 1133.68</t>
+          <t>0.38 - 1859.06</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.751481149350715</v>
+        <v>6.26794703606609</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.4308806211387</v>
+        <v>194.6823577308012</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>283.7916564941406</v>
+        <v>284.2221984863281</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.653777487981023e+65</v>
+        <v>3.195316333160888e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.230589371205634e+24</v>
+        <v>-9.274501403357398e+17</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.53281559288696e+67</v>
+        <v>-4.650113155228319e+66</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.692828710917523e+67</v>
+        <v>3.042591445815541e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-35328155928869600286358256700649644230345063099833701086179612426240.00 - 1692536954060587298723967612849746100388032812136340586317731208364032.00</t>
+          <t>-4650113155228318549980823571671715292280846561003913833600392364032.00 - 303315787151196723567548895555458893077627228881447361561293637025792.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.505552635858529e+51</v>
+        <v>-8.414482328692912e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.618115954597519e+50</v>
+        <v>9.220019736895971e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>117570</v>
+        <v>120185.52</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320677.6855217527</v>
+        <v>319855.7255629547</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234438.8712118763</v>
+        <v>237000.1158108149</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>173470</v>
+        <v>71490</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297616.4002198531</v>
+        <v>286780.6381175757</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12512.01 - 4068659.64</t>
+          <t>15457.86 - 3688504.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63477.03948035104</v>
+        <v>66094.42887029309</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862278.2916839507</v>
+        <v>850768.3572529906</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4382.35205078125</v>
+        <v>4493.2958984375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7273.531082254647</v>
+        <v>7516.534696033248</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5575.234281440389</v>
+        <v>5662.194857368851</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3210</v>
+        <v>3180</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6067.539273873419</v>
+        <v>6420.315041605042</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>430.50 - 86670.48</t>
+          <t>394.89 - 89725.20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1641.487882081337</v>
+        <v>1702.276700971525</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18378.1517892661</v>
+        <v>19243.69036365818</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.50534820556641</v>
+        <v>22.37344551086425</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.40395608755239</v>
+        <v>58.63328229182359</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.71256614122939</v>
+        <v>33.73968838608659</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.35563105485714</v>
+        <v>80.39224728620931</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.38 - 1859.06</t>
+          <t>0.39 - 1541.10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.26794703606609</v>
+        <v>6.029249459782815</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>194.6823577308012</v>
+        <v>189.1864839235505</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.2221984863281</v>
+        <v>286.0618286132812</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.195316333160888e+64</v>
+        <v>-2.181045383937629e+66</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-9.274501403357398e+17</v>
+        <v>9.55919745386007e+20</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-4.650113155228319e+66</v>
+        <v>-2.084728884463431e+70</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.042591445815541e+66</v>
+        <v>2.086812838509639e+68</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-4650113155228318549980823571671715292280846561003913833600392364032.00 - 303315787151196723567548895555458893077627228881447361561293637025792.00</t>
+          <t>-20847288844634306743256327315146241548704385028410415497957402690453504.00 - 2485172942727369696068110583276453218713023531794338242169061507072.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.414482328692912e+50</v>
+        <v>-8.167581782610593e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.220019736895971e+50</v>
+        <v>1.409915819706836e+51</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120185.52</v>
+        <v>122323.34</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319855.7255629547</v>
+        <v>329071.1515292464</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237000.1158108149</v>
+        <v>242181.2568793278</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71490</v>
+        <v>102200</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286780.6381175757</v>
+        <v>306763.5594070384</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15457.86 - 3688504.00</t>
+          <t>12392.30 - 3858238.11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66094.42887029309</v>
+        <v>66775.85503776901</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>850768.3572529906</v>
+        <v>872268.1939254964</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4493.2958984375</v>
+        <v>4487.84033203125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7516.534696033248</v>
+        <v>7671.69176299915</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5662.194857368851</v>
+        <v>5842.090272948902</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3180</v>
+        <v>4380</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6420.315041605042</v>
+        <v>6600.990540308851</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>394.89 - 89725.20</t>
+          <t>321.00 - 88721.14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1702.276700971525</v>
+        <v>1721.322826099224</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19243.69036365818</v>
+        <v>19862.68307066068</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.37344551086425</v>
+        <v>21.80117607116699</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.63328229182359</v>
+        <v>57.66237204309633</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.73968838608659</v>
+        <v>33.1626765856407</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.39224728620931</v>
+        <v>78.1004762215159</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.39 - 1541.10</t>
+          <t>0.69 - 1387.24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.029249459782815</v>
+        <v>5.899681225102031</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.1864839235505</v>
+        <v>189.5528803340833</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.0618286132812</v>
+        <v>283.0822143554688</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-2.181045383937629e+66</v>
+        <v>-1.067894044511954e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.55919745386007e+20</v>
+        <v>7.66328666143524e+19</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.084728884463431e+70</v>
+        <v>-9.348740503663997e+67</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.086812838509639e+68</v>
+        <v>1.4052243195718e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-20847288844634306743256327315146241548704385028410415497957402690453504.00 - 2485172942727369696068110583276453218713023531794338242169061507072.00</t>
+          <t>-93487405036639965321393717107544223222383834406593495884602097532928.00 - 67077347713138861589576183267755121314695658409432177899704420401152.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.167581782610593e+50</v>
+        <v>-1.209345901082368e+51</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.409915819706836e+51</v>
+        <v>9.142629969604855e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122323.34</v>
+        <v>122885.84</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329071.1515292464</v>
+        <v>331973.672444666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242181.2568793278</v>
+        <v>245075.5778504053</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102200</v>
+        <v>68850</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306763.5594070384</v>
+        <v>306983.7446773021</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12392.30 - 3858238.11</t>
+          <t>12660.47 - 4950459.30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66775.85503776901</v>
+        <v>68478.88033210582</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>872268.1939254964</v>
+        <v>877768.1497186624</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4487.84033203125</v>
+        <v>4573.763671875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7671.69176299915</v>
+        <v>7871.201644968078</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5842.090272948902</v>
+        <v>5922.613355310991</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4380</v>
+        <v>5270</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6600.990540308851</v>
+        <v>6869.358106869812</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>321.00 - 88721.14</t>
+          <t>304.64 - 97207.30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1721.322826099224</v>
+        <v>1736.934259791909</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19862.68307066068</v>
+        <v>20464.21522822533</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.80117607116699</v>
+        <v>22.10629844665528</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.66237204309633</v>
+        <v>58.07844509811953</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.1626765856407</v>
+        <v>33.91668009416712</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.1004762215159</v>
+        <v>79.03227030794559</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.69 - 1387.24</t>
+          <t>0.47 - 1483.11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.899681225102031</v>
+        <v>5.866688682835126</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.5528803340833</v>
+        <v>187.4039064771296</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>283.0822143554688</v>
+        <v>290.6808471679688</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.067894044511954e+64</v>
+        <v>1.531463351207896e+63</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.66328666143524e+19</v>
+        <v>7858441040672616</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.348740503663997e+67</v>
+        <v>-5.707924440740917e+65</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.4052243195718e+66</v>
+        <v>9.541157522927952e+64</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-93487405036639965321393717107544223222383834406593495884602097532928.00 - 67077347713138861589576183267755121314695658409432177899704420401152.00</t>
+          <t>-570792444074091793813924264825800468545975100473042995327031836672.00 - 7572928519522374628317559026572105651012366509499439057272139939840.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.209345901082368e+51</v>
+        <v>-4.248189387642024e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.142629969604855e+50</v>
+        <v>4.167877865381209e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122885.84</v>
+        <v>125190</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>331973.672444666</v>
+        <v>338407.8018728676</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245075.5778504053</v>
+        <v>249871.9345633438</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68850</v>
+        <v>146780</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306983.7446773021</v>
+        <v>311060.1478553342</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12660.47 - 4950459.30</t>
+          <t>17061.30 - 3831214.90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68478.88033210582</v>
+        <v>67864.36745165492</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>877768.1497186624</v>
+        <v>912572.0698232969</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4573.763671875</v>
+        <v>4695.30224609375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7871.201644968078</v>
+        <v>8002.260967088532</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5922.613355310991</v>
+        <v>6129.817596354331</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5270</v>
+        <v>3580</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6869.358106869812</v>
+        <v>6806.006659871224</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>304.64 - 97207.30</t>
+          <t>426.89 - 98352.55</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1736.934259791909</v>
+        <v>1816.042421872516</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20464.21522822533</v>
+        <v>20614.06896927226</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.10629844665528</v>
+        <v>22.79738235473633</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.07844509811953</v>
+        <v>59.6453902543165</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.91668009416712</v>
+        <v>34.94486392398244</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.03227030794559</v>
+        <v>81.34333673774374</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.47 - 1483.11</t>
+          <t>0.28 - 1328.31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.866688682835126</v>
+        <v>6.074254794319256</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>187.4039064771296</v>
+        <v>188.8965122009515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>290.6808471679688</v>
+        <v>290.8037719726562</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.531463351207896e+63</v>
+        <v>-5.399115555151308e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7858441040672616</v>
+        <v>-1.713668696010612e+22</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.707924440740917e+65</v>
+        <v>-3.262972073080938e+68</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.541157522927952e+64</v>
+        <v>4.685431432287182e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-570792444074091793813924264825800468545975100473042995327031836672.00 - 7572928519522374628317559026572105651012366509499439057272139939840.00</t>
+          <t>-326297207308093756647354760352569958392993294860069592961154214264832.00 - 173021346070544905242676876772514070739559996690504120477219970613248.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-4.248189387642024e+50</v>
+        <v>-7.688749246289e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.167877865381209e+50</v>
+        <v>5.000130397033592e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125190</v>
+        <v>121993.01</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338407.8018728676</v>
+        <v>331102.6417342366</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249871.9345633438</v>
+        <v>241348.4424518317</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146780</v>
+        <v>66890</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311060.1478553342</v>
+        <v>297785.3464807465</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17061.30 - 3831214.90</t>
+          <t>11870.47 - 3282307.97</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67864.36745165492</v>
+        <v>67153.47194564437</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>912572.0698232969</v>
+        <v>893906.0834499255</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4695.30224609375</v>
+        <v>4502.93896484375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8002.260967088532</v>
+        <v>7669.296776581791</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6129.817596354331</v>
+        <v>5738.141461378389</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3580</v>
+        <v>4250</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6806.006659871224</v>
+        <v>6645.99784332382</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>426.89 - 98352.55</t>
+          <t>425.50 - 89046.96</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1816.042421872516</v>
+        <v>1671.876140758646</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20614.06896927226</v>
+        <v>20286.39908785531</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.79738235473633</v>
+        <v>22.08080291748047</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.6453902543165</v>
+        <v>58.61305186302855</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.94486392398244</v>
+        <v>33.70160348596943</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.34333673774374</v>
+        <v>88.48221075835832</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.28 - 1328.31</t>
+          <t>0.86 - 2747.18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.074254794319256</v>
+        <v>6.027229149155074</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.8965122009515</v>
+        <v>184.7882494463181</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>290.8037719726562</v>
+        <v>280.9620666503906</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-5.399115555151308e+64</v>
+        <v>-7.375444978521108e+67</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.713668696010612e+22</v>
+        <v>1.812847119122346e+20</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.262972073080938e+68</v>
+        <v>-7.376164101334296e+71</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.685431432287182e+66</v>
+        <v>7.375795377726492e+69</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-326297207308093756647354760352569958392993294860069592961154214264832.00 - 173021346070544905242676876772514070739559996690504120477219970613248.00</t>
+          <t>-737616410133429576747100012998594187781576435256697957288163627621154816.00 - 48460895949973199244067733182993752539264931922783663235561638854656.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-7.688749246289e+50</v>
+        <v>-6.755473168964613e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.000130397033592e+50</v>
+        <v>4.273259493844135e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121993.01</v>
+        <v>123321.76</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>331102.6417342366</v>
+        <v>330753.1008286572</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241348.4424518317</v>
+        <v>246842.2903471218</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66890</v>
+        <v>125250</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297785.3464807465</v>
+        <v>302176.7586163623</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11870.47 - 3282307.97</t>
+          <t>11796.22 - 5102749.80</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67153.47194564437</v>
+        <v>66735.81415839767</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>893906.0834499255</v>
+        <v>874974.7701041711</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4502.93896484375</v>
+        <v>4358.33056640625</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7669.296776581791</v>
+        <v>7436.091171971893</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5738.141461378389</v>
+        <v>5670.066431335685</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4250</v>
+        <v>2720</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6645.99784332382</v>
+        <v>6355.399183742892</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>425.50 - 89046.96</t>
+          <t>298.61 - 100585.99</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1671.876140758646</v>
+        <v>1676.472839871203</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20286.39908785531</v>
+        <v>18849.56726949435</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.08080291748047</v>
+        <v>21.74789047241211</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.61305186302855</v>
+        <v>56.94621635531762</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.70160348596943</v>
+        <v>33.0706350843159</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.48221075835832</v>
+        <v>77.79607545026067</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.86 - 2747.18</t>
+          <t>0.63 - 1434.59</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.027229149155074</v>
+        <v>5.987829744695888</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.7882494463181</v>
+        <v>183.0968541856168</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280.9620666503906</v>
+        <v>275.3885803222656</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-7.375444978521108e+67</v>
+        <v>5.778547518911975e+67</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.812847119122346e+20</v>
+        <v>-1.120498168787306e+16</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-7.376164101334296e+71</v>
+        <v>-9.006492351468664e+68</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.375795377726492e+69</v>
+        <v>5.787299284971488e+69</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-737616410133429576747100012998594187781576435256697957288163627621154816.00 - 48460895949973199244067733182993752539264931922783663235561638854656.00</t>
+          <t>-900649235146866427243292464458784245162039757313772141509942917988352.00 - 578758075953274648345844914515677573356746927695997416733252146742427648.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.755473168964613e+50</v>
+        <v>-6.007948414999706e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.273259493844135e+50</v>
+        <v>5.927620615799033e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123321.76</v>
+        <v>121415.68</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330753.1008286572</v>
+        <v>323974.4081194131</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246842.2903471218</v>
+        <v>239146.1794684817</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125250</v>
+        <v>85850</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302176.7586163623</v>
+        <v>291873.545377794</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11796.22 - 5102749.80</t>
+          <t>16371.91 - 4124149.73</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66735.81415839767</v>
+        <v>66307.36932590591</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>874974.7701041711</v>
+        <v>860646.1174129411</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4358.33056640625</v>
+        <v>4343.8818359375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7436.091171971893</v>
+        <v>7351.066011047717</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5670.066431335685</v>
+        <v>5577.345146588113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2720</v>
+        <v>2190</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6355.399183742892</v>
+        <v>6337.793338303726</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>298.61 - 100585.99</t>
+          <t>256.68 - 140249.34</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1676.472839871203</v>
+        <v>1676.645212531342</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18849.56726949435</v>
+        <v>18974.92916651097</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.74789047241211</v>
+        <v>22.546630859375</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.94621635531762</v>
+        <v>59.71558341171604</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.0706350843159</v>
+        <v>34.85311413805996</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.79607545026067</v>
+        <v>84.54349286007994</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.63 - 1434.59</t>
+          <t>0.56 - 1510.79</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.987829744695888</v>
+        <v>6.166555479876496</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.0968541856168</v>
+        <v>189.2146216723911</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>275.3885803222656</v>
+        <v>277.3108520507812</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.778547518911975e+67</v>
+        <v>-2.867695149087164e+65</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.120498168787306e+16</v>
+        <v>3.721543489573996e+20</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.006492351468664e+68</v>
+        <v>-2.467076999860504e+69</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.787299284971488e+69</v>
+        <v>2.498350996003456e+67</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-900649235146866427243292464458784245162039757313772141509942917988352.00 - 578758075953274648345844914515677573356746927695997416733252146742427648.00</t>
+          <t>-2467076999860503690173088474611009105882001350501414024361746381144064.00 - 124598180359187870769907604077060876143034383686777654051715678208.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.007948414999706e+50</v>
+        <v>-4.338247270781341e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.927620615799033e+50</v>
+        <v>5.359210426021264e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121415.68</v>
+        <v>113416.95</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323974.4081194131</v>
+        <v>308543.7528331139</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239146.1794684817</v>
+        <v>224151.6424560709</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85850</v>
+        <v>130340</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291873.545377794</v>
+        <v>294321.1716242031</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16371.91 - 4124149.73</t>
+          <t>12721.57 - 4629511.83</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66307.36932590591</v>
+        <v>62885.4590317477</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>860646.1174129411</v>
+        <v>819907.7261044693</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4343.8818359375</v>
+        <v>3836.67333984375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7351.066011047717</v>
+        <v>6480.395736096785</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5577.345146588113</v>
+        <v>4815.300274932878</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2190</v>
+        <v>3090</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6337.793338303726</v>
+        <v>5659.948533682025</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>256.68 - 140249.34</t>
+          <t>251.57 - 71302.86</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1676.645212531342</v>
+        <v>1479.208481797133</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18974.92916651097</v>
+        <v>16849.48424705367</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.546630859375</v>
+        <v>18.11993408203125</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.71558341171604</v>
+        <v>45.87864089345445</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.85311413805996</v>
+        <v>26.81458128534987</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.54349286007994</v>
+        <v>60.97381112013318</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.56 - 1510.79</t>
+          <t>0.13 - 1140.79</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.166555479876496</v>
+        <v>4.866840494234376</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.2146216723911</v>
+        <v>150.0158308330062</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>277.3108520507812</v>
+        <v>241.6710357666016</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-2.867695149087164e+65</v>
+        <v>-1.162115715471347e+70</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.721543489573996e+20</v>
+        <v>7.721866200029336e+17</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.467076999860504e+69</v>
+        <v>-1.162115680619863e+74</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.498350996003456e+67</v>
+        <v>1.16205757337963e+72</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-2467076999860503690173088474611009105882001350501414024361746381144064.00 - 124598180359187870769907604077060876143034383686777654051715678208.00</t>
+          <t>-116211568061986295022430254352503374917377143098837714554565978235579924480.00 - 105844200434236970507866766913965751711457689895014972106135830528.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-4.338247270781341e+50</v>
+        <v>-4.050569509289947e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.359210426021264e+50</v>
+        <v>2.336569116532521e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113416.95</v>
+        <v>110888.94</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308543.7528331139</v>
+        <v>292007.7550194971</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224151.6424560709</v>
+        <v>217414.2081847951</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>130340</v>
+        <v>84320</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294321.1716242031</v>
+        <v>258127.8147446172</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12721.57 - 4629511.83</t>
+          <t>7595.70 - 3966575.97</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62885.4590317477</v>
+        <v>59585.55941684847</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>819907.7261044693</v>
+        <v>760400.1413561717</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3836.67333984375</v>
+        <v>3824.5068359375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6480.395736096785</v>
+        <v>6406.637150502417</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4815.300274932878</v>
+        <v>4861.999910003342</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3090</v>
+        <v>1910</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5659.948533682025</v>
+        <v>5541.349748953264</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>251.57 - 71302.86</t>
+          <t>179.23 - 73342.73</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1479.208481797133</v>
+        <v>1401.829452182963</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16849.48424705367</v>
+        <v>16407.2506273749</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.11993408203125</v>
+        <v>17.34877586364746</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.87864089345445</v>
+        <v>44.96239608848341</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.81458128534987</v>
+        <v>25.92100965364543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.97381112013318</v>
+        <v>58.70373952538768</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.13 - 1140.79</t>
+          <t>0.40 - 790.55</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.866840494234376</v>
+        <v>4.582010055722971</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.0158308330062</v>
+        <v>149.7170855557823</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.6710357666016</v>
+        <v>229.2238311767578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.162115715471347e+70</v>
+        <v>3.377519350654288e+65</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.721866200029336e+17</v>
+        <v>8.446741027519533e+21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.162115680619863e+74</v>
+        <v>-2.72184596864575e+68</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.16205757337963e+72</v>
+        <v>3.67198667162139e+67</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-116211568061986295022430254352503374917377143098837714554565978235579924480.00 - 105844200434236970507866766913965751711457689895014972106135830528.00</t>
+          <t>-272184596864574952137320413855615067735580192053031524082172345450496.00 - 3662016737653504723464631390204455502239940914827554321086219385044992.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-4.050569509289947e+50</v>
+        <v>-3.687450696563494e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.336569116532521e+50</v>
+        <v>3.438449404692006e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110888.94</v>
+        <v>115481.15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>292007.7550194971</v>
+        <v>308576.6438194647</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217414.2081847951</v>
+        <v>227100.6123316693</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84320</v>
+        <v>41860</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258127.8147446172</v>
+        <v>279959.5508571573</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7595.70 - 3966575.97</t>
+          <t>9978.81 - 4063939.32</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59585.55941684847</v>
+        <v>64052.01886114421</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>760400.1413561717</v>
+        <v>833869.9390966152</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3824.5068359375</v>
+        <v>4153.55029296875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6406.637150502417</v>
+        <v>6987.524266656446</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4861.999910003342</v>
+        <v>5290.210459424505</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1910</v>
+        <v>3180</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5541.349748953264</v>
+        <v>5982.642390091399</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>179.23 - 73342.73</t>
+          <t>369.03 - 105732.44</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1401.829452182963</v>
+        <v>1535.328554585623</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16407.2506273749</v>
+        <v>17906.32096223651</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.34877586364746</v>
+        <v>19.74095344543457</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.96239608848341</v>
+        <v>50.00243117937013</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25.92100965364543</v>
+        <v>29.46837761182371</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.70373952538768</v>
+        <v>65.45386415964259</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.40 - 790.55</t>
+          <t>0.51 - 1255.12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.582010055722971</v>
+        <v>5.312223163781623</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.7170855557823</v>
+        <v>160.9412648130702</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>229.2238311767578</v>
+        <v>253.3343200683593</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.377519350654288e+65</v>
+        <v>2.653808313752226e+63</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.446741027519533e+21</v>
+        <v>7.80240029416534e+17</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.72184596864575e+68</v>
+        <v>-1.071790134637556e+66</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.67198667162139e+67</v>
+        <v>1.816939490149723e+65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-272184596864574952137320413855615067735580192053031524082172345450496.00 - 3662016737653504723464631390204455502239940914827554321086219385044992.00</t>
+          <t>-1071790134637555737560616764453171518072001171545724416889068716032.00 - 14177711839402610451322496899157498287198602719527676837523984744448.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.687450696563494e+50</v>
+        <v>-1.956924741390354e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.438449404692006e+50</v>
+        <v>6.364490321871578e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115481.15</v>
+        <v>115719.99</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308576.6438194647</v>
+        <v>311016.3350801979</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227100.6123316693</v>
+        <v>232520.4887794906</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41860</v>
+        <v>149770</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279959.5508571573</v>
+        <v>277945.3502553515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9978.81 - 4063939.32</t>
+          <t>13211.62 - 4323877.44</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64052.01886114421</v>
+        <v>63761.57791588272</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>833869.9390966152</v>
+        <v>817605.3191307361</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4153.55029296875</v>
+        <v>3944.866943359375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6987.524266656446</v>
+        <v>6457.314229934033</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5290.210459424505</v>
+        <v>4937.604875673052</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3180</v>
+        <v>3200</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5982.642390091399</v>
+        <v>5459.316594686742</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>369.03 - 105732.44</t>
+          <t>271.42 - 110401.72</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1535.328554585623</v>
+        <v>1452.884230099406</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17906.32096223651</v>
+        <v>16647.86921740945</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.74095344543457</v>
+        <v>18.34938621520996</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.00243117937013</v>
+        <v>47.24481498285406</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.46837761182371</v>
+        <v>27.53705411065873</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.45386415964259</v>
+        <v>64.8423045158809</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.51 - 1255.12</t>
+          <t>0.55 - 1233.35</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.312223163781623</v>
+        <v>4.824649362560881</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>160.9412648130702</v>
+        <v>150.6172661440062</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>253.3343200683593</v>
+        <v>241.8368988037109</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.653808313752226e+63</v>
+        <v>1.522689740037404e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.80240029416534e+17</v>
+        <v>-1.231598023070267e+19</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.071790134637556e+66</v>
+        <v>-1.199795301388487e+67</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.816939490149723e+65</v>
+        <v>1.669139106549531e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-1071790134637555737560616764453171518072001171545724416889068716032.00 - 14177711839402610451322496899157498287198602719527676837523984744448.00</t>
+          <t>-11997953013884874650833401299404516395376397205921806703878788349952.00 - 166449175565076454002274739024700153158610926344807775747017921265664.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.956924741390354e+50</v>
+        <v>-3.208461885783337e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.364490321871578e+50</v>
+        <v>3.128454186335316e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115719.99</v>
+        <v>113273.88</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311016.3350801979</v>
+        <v>304529.3910319729</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232520.4887794906</v>
+        <v>224131.5986535323</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149770</v>
+        <v>77020</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277945.3502553515</v>
+        <v>272297.5193296584</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13211.62 - 4323877.44</t>
+          <t>11481.59 - 4265048.16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63761.57791588272</v>
+        <v>62753.44474361798</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>817605.3191307361</v>
+        <v>811351.1887820774</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3944.866943359375</v>
+        <v>4124.0546875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6457.314229934033</v>
+        <v>6869.503799034198</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4937.604875673052</v>
+        <v>5196.251222173318</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3200</v>
+        <v>2770</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5459.316594686742</v>
+        <v>5943.265171755824</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>271.42 - 110401.72</t>
+          <t>345.97 - 100378.74</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1452.884230099406</v>
+        <v>1537.908697674428</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16647.86921740945</v>
+        <v>17980.95905346507</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.34938621520996</v>
+        <v>18.77454948425293</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.24481498285406</v>
+        <v>47.3725370432901</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.53705411065873</v>
+        <v>28.13148499729233</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.8423045158809</v>
+        <v>61.09054893658041</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.55 - 1233.35</t>
+          <t>0.68 - 966.04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.824649362560881</v>
+        <v>4.996592197693038</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.6172661440062</v>
+        <v>148.3534847148988</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.8368988037109</v>
+        <v>255.1683654785156</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.522689740037404e+64</v>
+        <v>-3.888472782837848e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.231598023070267e+19</v>
+        <v>2055412062374.624</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.199795301388487e+67</v>
+        <v>-5.369068521215557e+68</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.669139106549531e+66</v>
+        <v>5.447989643000225e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-11997953013884874650833401299404516395376397205921806703878788349952.00 - 166449175565076454002274739024700153158610926344807775747017921265664.00</t>
+          <t>-536906852121555719677012537221353975332008243516120043774911124078592.00 - 76382614333908699175237870079569259410634473264365898955824438444032.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.208461885783337e+50</v>
+        <v>-3.4271233443973e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.128454186335316e+50</v>
+        <v>5.792403686703952e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113273.88</v>
+        <v>110842.53</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304529.3910319729</v>
+        <v>292232.2108457792</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224131.5986535323</v>
+        <v>217332.3259310817</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77020</v>
+        <v>79390</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272297.5193296584</v>
+        <v>258019.8589262714</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11481.59 - 4265048.16</t>
+          <t>12108.42 - 4811102.39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62753.44474361798</v>
+        <v>60631.89354003211</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>811351.1887820774</v>
+        <v>770243.592591104</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4124.0546875</v>
+        <v>4054.489501953125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6869.503799034198</v>
+        <v>6850.600683284053</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5196.251222173318</v>
+        <v>5204.711039691324</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2770</v>
+        <v>3480</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5943.265171755824</v>
+        <v>5735.797577371849</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>345.97 - 100378.74</t>
+          <t>223.65 - 80835.22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1537.908697674428</v>
+        <v>1504.109717403466</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17980.95905346507</v>
+        <v>17488.44117604086</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.77454948425293</v>
+        <v>18.45015525817871</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.3725370432901</v>
+        <v>47.16625278490018</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.13148499729233</v>
+        <v>27.31569934075391</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.09054893658041</v>
+        <v>65.26357255054059</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.68 - 966.04</t>
+          <t>0.58 - 1834.68</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.996592197693038</v>
+        <v>4.942781937812641</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.3534847148988</v>
+        <v>151.8814145525131</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.1683654785156</v>
+        <v>244.1693420410156</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.888472782837848e+64</v>
+        <v>-1.651213897742197e+68</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2055412062374.624</v>
+        <v>-4.078424990592737e+21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.369068521215557e+68</v>
+        <v>-1.656455168611945e+72</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.447989643000225e+66</v>
+        <v>1.65637919984206e+70</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-536906852121555719677012537221353975332008243516120043774911124078592.00 - 76382614333908699175237870079569259410634473264365898955824438444032.00</t>
+          <t>-1656455168611944961486336914994581422750155010442353773692446059765170176.00 - 4524044107750358861299717206274372995188255193108790080719722951737344.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.4271233443973e+50</v>
+        <v>-1.82823890303623e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.792403686703952e+50</v>
+        <v>3.024013211126231e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110842.53</v>
+        <v>108416.01</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>292232.2108457792</v>
+        <v>287902.7390247788</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217332.3259310817</v>
+        <v>212761.900596349</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79390</v>
+        <v>135660</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258019.8589262714</v>
+        <v>261562.5173370162</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12108.42 - 4811102.39</t>
+          <t>11488.60 - 4348741.14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60631.89354003211</v>
+        <v>59320.98349910433</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>770243.592591104</v>
+        <v>767758.1548435941</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4054.489501953125</v>
+        <v>3715.722412109375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6850.600683284053</v>
+        <v>6214.648644786112</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5204.711039691324</v>
+        <v>4763.861136989688</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3480</v>
+        <v>1950</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5735.797577371849</v>
+        <v>5356.93198398002</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>223.65 - 80835.22</t>
+          <t>365.44 - 105917.52</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1504.109717403466</v>
+        <v>1388.358101692011</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17488.44117604086</v>
+        <v>15864.05040782243</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.45015525817871</v>
+        <v>16.02794456481934</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.16625278490018</v>
+        <v>40.73300028303372</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.31569934075391</v>
+        <v>23.44554358087071</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.26357255054059</v>
+        <v>58.50631005062257</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.58 - 1834.68</t>
+          <t>0.32 - 1693.39</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.942781937812641</v>
+        <v>4.274898169035171</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.8814145525131</v>
+        <v>130.3483638392687</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>244.1693420410156</v>
+        <v>206.4315795898437</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.651213897742197e+68</v>
+        <v>-1.291479096614962e+65</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-4.078424990592737e+21</v>
+        <v>-5.966783098445399e+20</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.656455168611945e+72</v>
+        <v>-1.266171273171845e+69</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.65637919984206e+70</v>
+        <v>1.267416988931073e+67</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-1656455168611944961486336914994581422750155010442353773692446059765170176.00 - 4524044107750358861299717206274372995188255193108790080719722951737344.00</t>
+          <t>-1266171273171845305210325085268654975045279790637608038911873548025856.00 - 25914476763032225934485017201082575388115588788591817914494807441408.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.82823890303623e+50</v>
+        <v>-3.638092948876272e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.024013211126231e+50</v>
+        <v>1.112109600439117e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108416.01</v>
+        <v>107306.82</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287902.7390247788</v>
+        <v>284364.7068676112</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212761.900596349</v>
+        <v>209599.9968256879</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135660</v>
+        <v>107540</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261562.5173370162</v>
+        <v>257841.9276237676</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11488.60 - 4348741.14</t>
+          <t>12600.36 - 3268536.58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59320.98349910433</v>
+        <v>59066.13165687579</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>767758.1548435941</v>
+        <v>746351.6651748348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3715.722412109375</v>
+        <v>3876.173095703125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6214.648644786112</v>
+        <v>6494.857429861677</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4763.861136989688</v>
+        <v>4936.730940427251</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1950</v>
+        <v>2560</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5356.93198398002</v>
+        <v>5570.215618191723</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>365.44 - 105917.52</t>
+          <t>362.11 - 102851.70</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1388.358101692011</v>
+        <v>1433.390552832002</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15864.05040782243</v>
+        <v>16673.3543973819</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.02794456481934</v>
+        <v>16.84600067138672</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.73300028303372</v>
+        <v>42.21355330427975</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23.44554358087071</v>
+        <v>24.65631273283699</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.50631005062257</v>
+        <v>58.40301205676314</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.32 - 1693.39</t>
+          <t>0.61 - 1294.54</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.274898169035171</v>
+        <v>4.488378485942575</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3483638392687</v>
+        <v>137.2865825293135</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>206.4315795898437</v>
+        <v>209.1601104736328</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.291479096614962e+65</v>
+        <v>6.812645721922266e+67</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-5.966783098445399e+20</v>
+        <v>2.508804394723786e+22</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.266171273171845e+69</v>
+        <v>-5.513188639317511e+65</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.267416988931073e+67</v>
+        <v>6.812302925735205e+69</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-1266171273171845305210325085268654975045279790637608038911873548025856.00 - 25914476763032225934485017201082575388115588788591817914494807441408.00</t>
+          <t>-551318863931751235637328393754563386879520524086183769074745475072.00 - 681264356664108661996227722945077793152101647374460139818955178260824064.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.638092948876272e+50</v>
+        <v>-1.248982602809441e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.112109600439117e+50</v>
+        <v>3.204806724497041e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107306.82</v>
+        <v>110548.51</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284364.7068676112</v>
+        <v>293685.4036534581</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209599.9968256879</v>
+        <v>217037.9290794563</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107540</v>
+        <v>105330</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257841.9276237676</v>
+        <v>266892.4102318235</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12600.36 - 3268536.58</t>
+          <t>13594.23 - 4481593.51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59066.13165687579</v>
+        <v>59783.59272848918</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>746351.6651748348</v>
+        <v>773799.0480070855</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3876.173095703125</v>
+        <v>3889.059814453125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6494.857429861677</v>
+        <v>6482.758868541694</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4936.730940427251</v>
+        <v>4921.065683073239</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2560</v>
+        <v>3360</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5570.215618191723</v>
+        <v>5614.276168466825</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>362.11 - 102851.70</t>
+          <t>284.47 - 105338.71</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1433.390552832002</v>
+        <v>1481.325754055954</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16673.3543973819</v>
+        <v>16586.57461313056</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.84600067138672</v>
+        <v>18.01535224914551</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.21355330427975</v>
+        <v>46.04394264449505</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.65631273283699</v>
+        <v>26.8839323831112</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.40301205676314</v>
+        <v>61.83511199762876</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.61 - 1294.54</t>
+          <t>0.59 - 1362.90</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.488378485942575</v>
+        <v>4.920145387970013</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.2865825293135</v>
+        <v>148.0249115923686</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.1601104736328</v>
+        <v>222.834213256836</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.812645721922266e+67</v>
+        <v>1.035148017506368e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.508804394723786e+22</v>
+        <v>4.123365819644196e+20</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.513188639317511e+65</v>
+        <v>-8.696880200177421e+65</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.812302925735205e+69</v>
+        <v>1.043452536895851e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-551318863931751235637328393754563386879520524086183769074745475072.00 - 681264356664108661996227722945077793152101647374460139818955178260824064.00</t>
+          <t>-869688020017742059701836027866125910642412399359666389034630905856.00 - 104346027903195488739922207491482518765765494395314226292596815167488.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.248982602809441e+50</v>
+        <v>-1.228127193370923e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.204806724497041e+50</v>
+        <v>3.004138422304705e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110548.51</v>
+        <v>110773.97</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293685.4036534581</v>
+        <v>295996.9206397132</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217037.9290794563</v>
+        <v>216041.0622817673</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105330</v>
+        <v>147490</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266892.4102318235</v>
+        <v>271683.6325827964</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13594.23 - 4481593.51</t>
+          <t>11953.96 - 3259056.59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59783.59272848918</v>
+        <v>57887.17460617566</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>773799.0480070855</v>
+        <v>793938.3785698819</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3889.059814453125</v>
+        <v>3831.702392578125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6482.758868541694</v>
+        <v>6285.500003659545</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4921.065683073239</v>
+        <v>4812.955139685779</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3360</v>
+        <v>3320</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5614.276168466825</v>
+        <v>5217.653446617452</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>284.47 - 105338.71</t>
+          <t>251.66 - 71724.11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1481.325754055954</v>
+        <v>1452.2433595793</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16586.57461313056</v>
+        <v>15918.304988588</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.01535224914551</v>
+        <v>17.42324447631836</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.04394264449505</v>
+        <v>44.18420750903054</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.8839323831112</v>
+        <v>26.38419878253682</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.83511199762876</v>
+        <v>58.60030630700409</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.59 - 1362.90</t>
+          <t>0.53 - 914.73</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.920145387970013</v>
+        <v>4.589707623068786</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.0249115923686</v>
+        <v>140.9678118731668</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>222.834213256836</v>
+        <v>215.8604278564453</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.035148017506368e+64</v>
+        <v>-2.420824386941429e+65</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.123365819644196e+20</v>
+        <v>9.200278573869682e+19</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-8.696880200177421e+65</v>
+        <v>-2.389231677011722e+69</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.043452536895851e+66</v>
+        <v>2.389421740575161e+67</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-869688020017742059701836027866125910642412399359666389034630905856.00 - 104346027903195488739922207491482518765765494395314226292596815167488.00</t>
+          <t>-2389231677011721278585149692452822915586165380823860650443633944690688.00 - 6913936802432973282232859698383722662758318927146164221540426579968.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.228127193370923e+50</v>
+        <v>-1.73046075921887e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.004138422304705e+50</v>
+        <v>2.516753922308062e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110773.97</v>
+        <v>107268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>295996.9206397132</v>
+        <v>287863.5544597537</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216041.0622817673</v>
+        <v>211929.9884475076</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147490</v>
+        <v>87450</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>271683.6325827964</v>
+        <v>262016.424087568</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11953.96 - 3259056.59</t>
+          <t>12113.97 - 4231794.09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57887.17460617566</v>
+        <v>57806.0850094164</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>793938.3785698819</v>
+        <v>755003.1579448977</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3831.702392578125</v>
+        <v>3879.666748046875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6285.500003659545</v>
+        <v>6513.582414745521</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4812.955139685779</v>
+        <v>4893.883807267145</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3320</v>
+        <v>3850</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5217.653446617452</v>
+        <v>5499.561329922438</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>251.66 - 71724.11</t>
+          <t>329.88 - 57401.58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1452.2433595793</v>
+        <v>1487.844078045639</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15918.304988588</v>
+        <v>16941.56937692476</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.42324447631836</v>
+        <v>17.38758277893066</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.18420750903054</v>
+        <v>44.42455770884325</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.38419878253682</v>
+        <v>26.28477697021555</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.60030630700409</v>
+        <v>59.71869177408325</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.53 - 914.73</t>
+          <t>0.33 - 1092.18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.589707623068786</v>
+        <v>4.697275791404752</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9678118731668</v>
+        <v>142.0583214444143</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>215.8604278564453</v>
+        <v>221.7545166015625</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-2.420824386941429e+65</v>
+        <v>2.384393775541108e+72</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.200278573869682e+19</v>
+        <v>1.254811148782088e+18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.389231677011722e+69</v>
+        <v>-1.417274920048242e+64</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.389421740575161e+67</v>
+        <v>2.384274552856127e+74</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-2389231677011721278585149692452822915586165380823860650443633944690688.00 - 6913936802432973282232859698383722662758318927146164221540426579968.00</t>
+          <t>-14172749200482418556167539269519896480693791338434846387462995968.00 - 23843937755255459376305579196558350472923756638945847602325833669023715295232.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.73046075921887e+50</v>
+        <v>-2.379009409858877e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.516753922308062e+50</v>
+        <v>1.402825601737499e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107268</v>
+        <v>109588</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287863.5544597537</v>
+        <v>286562.6546139345</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211929.9884475076</v>
+        <v>214749.4662639042</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87450</v>
+        <v>70030</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262016.424087568</v>
+        <v>252123.4566126543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12113.97 - 4231794.09</t>
+          <t>13128.33 - 3677210.88</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57806.0850094164</v>
+        <v>59230.11592758929</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>755003.1579448977</v>
+        <v>754409.5765242336</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3879.666748046875</v>
+        <v>3958.232421875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6513.582414745521</v>
+        <v>6567.144459998191</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4893.883807267145</v>
+        <v>4984.053933604251</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3850</v>
+        <v>2910</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5499.561329922438</v>
+        <v>5519.388084945618</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>329.88 - 57401.58</t>
+          <t>262.52 - 106788.42</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1487.844078045639</v>
+        <v>1486.268839269671</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16941.56937692476</v>
+        <v>16928.09883279525</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.38758277893066</v>
+        <v>17.65057945251465</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.42455770884325</v>
+        <v>44.87725095703107</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.28477697021555</v>
+        <v>26.33085845190361</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.71869177408325</v>
+        <v>62.71508235848394</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.33 - 1092.18</t>
+          <t>0.60 - 1564.89</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.697275791404752</v>
+        <v>4.780805548463963</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>142.0583214444143</v>
+        <v>144.9427794389075</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.7545166015625</v>
+        <v>229.4728393554688</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.384393775541108e+72</v>
+        <v>-8.07089323775041e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.254811148782088e+18</v>
+        <v>1.486216877707014e+18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.417274920048242e+64</v>
+        <v>-7.679637189077932e+68</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.384274552856127e+74</v>
+        <v>7.691954348297565e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-14172749200482418556167539269519896480693791338434846387462995968.00 - 23843937755255459376305579196558350472923756638945847602325833669023715295232.00</t>
+          <t>-767963718907793247809982749707850492505978834139735145641299293503488.00 - 8858061278879962956724759741684692946730328737529227383475009486848.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.379009409858877e+50</v>
+        <v>-5.729341917265328e+49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.402825601737499e+50</v>
+        <v>1.086809772119448e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109588</v>
+        <v>111025.09</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286562.6546139345</v>
+        <v>293625.7051702923</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214749.4662639042</v>
+        <v>218022.9002049221</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70030</v>
+        <v>52000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>252123.4566126543</v>
+        <v>270182.4222787594</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13128.33 - 3677210.88</t>
+          <t>12024.97 - 4923265.50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59230.11592758929</v>
+        <v>59750.81760040542</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>754409.5765242336</v>
+        <v>784799.1625346378</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3958.232421875</v>
+        <v>3943.975830078125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6567.144459998191</v>
+        <v>6629.796146229707</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4984.053933604251</v>
+        <v>5028.278005624086</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2910</v>
+        <v>2320</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5519.388084945618</v>
+        <v>5785.896015399226</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>262.52 - 106788.42</t>
+          <t>324.44 - 104054.59</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1486.268839269671</v>
+        <v>1483.266116687093</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16928.09883279525</v>
+        <v>17246.45044055292</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.65057945251465</v>
+        <v>17.92191123962402</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.87725095703107</v>
+        <v>46.27743528849296</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.33085845190361</v>
+        <v>27.10160317488593</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.71508235848394</v>
+        <v>67.155547587244</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.60 - 1564.89</t>
+          <t>0.17 - 2885.73</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.780805548463963</v>
+        <v>4.792114258290587</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.9427794389075</v>
+        <v>148.4199050140074</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>229.4728393554688</v>
+        <v>226.1012725830078</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-8.07089323775041e+64</v>
+        <v>3.001104469227386e+62</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.486216877707014e+18</v>
+        <v>6.443973472771837e+16</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-7.679637189077932e+68</v>
+        <v>-4.265901988416661e+65</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.691954348297565e+66</v>
+        <v>3.490793360452693e+64</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-767963718907793247809982749707850492505978834139735145641299293503488.00 - 8858061278879962956724759741684692946730328737529227383475009486848.00</t>
+          <t>-426590198841666085519578962138637053121033361069387293213950214144.00 - 3458473549347122963344568952270745244867841188804079109089253130240.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.729341917265328e+49</v>
+        <v>-1.022607612689822e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.086809772119448e+50</v>
+        <v>3.251500854129527e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111025.09</v>
+        <v>111477.75</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293625.7051702923</v>
+        <v>298980.4796075328</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218022.9002049221</v>
+        <v>217960.7926494737</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52000</v>
+        <v>205200</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270182.4222787594</v>
+        <v>282876.7621933859</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12024.97 - 4923265.50</t>
+          <t>12488.55 - 4278476.99</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59750.81760040542</v>
+        <v>60038.85599805626</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784799.1625346378</v>
+        <v>790243.5026654578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3943.975830078125</v>
+        <v>3984.611083984375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6629.796146229707</v>
+        <v>6648.555807272171</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5028.278005624086</v>
+        <v>5048.476613750393</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2320</v>
+        <v>3340</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5785.896015399226</v>
+        <v>5675.855761807013</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>324.44 - 104054.59</t>
+          <t>333.69 - 77499.33</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1483.266116687093</v>
+        <v>1513.023332339845</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17246.45044055292</v>
+        <v>17169.59143236134</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.92191123962402</v>
+        <v>18.05899620056152</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.27743528849296</v>
+        <v>46.00727930384714</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.10160317488593</v>
+        <v>26.81002632247827</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.155547587244</v>
+        <v>62.57307756357167</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.17 - 2885.73</t>
+          <t>0.48 - 1312.23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.792114258290587</v>
+        <v>4.803887916939429</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.4199050140074</v>
+        <v>148.5627229218344</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>226.1012725830078</v>
+        <v>231.1378326416016</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.001104469227386e+62</v>
+        <v>-8.775452174047664e+66</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.443973472771837e+16</v>
+        <v>-7.32598868314231e+17</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-4.265901988416661e+65</v>
+        <v>-8.775405828825605e+70</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.490793360452693e+64</v>
+        <v>8.774967042989202e+68</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-426590198841666085519578962138637053121033361069387293213950214144.00 - 3458473549347122963344568952270745244867841188804079109089253130240.00</t>
+          <t>-87754058288256050578675866261887894397749625403481828110262467156770816.00 - 13128871766593141254054756981265042481249736546403175842592063488.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.022607612689822e+50</v>
+        <v>-1.866000369575737e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.251500854129527e+50</v>
+        <v>7.705828890099066e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111477.75</v>
+        <v>114777.38</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298980.4796075328</v>
+        <v>307588.248041608</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217960.7926494737</v>
+        <v>225030.6028997361</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205200</v>
+        <v>51040</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282876.7621933859</v>
+        <v>283719.8770966729</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12488.55 - 4278476.99</t>
+          <t>14149.61 - 3359916.39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60038.85599805626</v>
+        <v>63787.29666456699</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>790243.5026654578</v>
+        <v>834331.9888524263</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3984.611083984375</v>
+        <v>4166.375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6648.555807272171</v>
+        <v>7021.250694329497</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5048.476613750393</v>
+        <v>5340.10633790698</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3340</v>
+        <v>2420</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5675.855761807013</v>
+        <v>6175.884066037348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>333.69 - 77499.33</t>
+          <t>283.09 - 116212.24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1513.023332339845</v>
+        <v>1577.171926774587</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17169.59143236134</v>
+        <v>17911.32327923913</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.05899620056152</v>
+        <v>18.51248741149902</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.00727930384714</v>
+        <v>47.45657471171955</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.81002632247827</v>
+        <v>27.45405833305609</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.57307756357167</v>
+        <v>72.71003557489121</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.48 - 1312.23</t>
+          <t>0.52 - 2867.69</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.803887916939429</v>
+        <v>4.797338328398779</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.5627229218344</v>
+        <v>152.4537376466627</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.1378326416016</v>
+        <v>238.7088623046875</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-8.775452174047664e+66</v>
+        <v>1.617752790404877e+63</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-7.32598868314231e+17</v>
+        <v>-2.226131474207417e+21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-8.775405828825605e+70</v>
+        <v>-3.425531071885953e+66</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.774967042989202e+68</v>
+        <v>2.078092764981178e+65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-87754058288256050578675866261887894397749625403481828110262467156770816.00 - 13128871766593141254054756981265042481249736546403175842592063488.00</t>
+          <t>-3425531071885953234339505353718097820665660041706834646436264542208.00 - 20470278742825281251423113362556562165555367000343866213843377061888.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.866000369575737e+50</v>
+        <v>-1.097105345233429e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.705828890099066e+49</v>
+        <v>1.019834879976167e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114777.38</v>
+        <v>114095.84</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307588.248041608</v>
+        <v>305264.974228373</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225030.6028997361</v>
+        <v>226081.468688824</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51040</v>
+        <v>89710</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283719.8770966729</v>
+        <v>283590.7720576614</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14149.61 - 3359916.39</t>
+          <t>15197.28 - 6412735.65</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63787.29666456699</v>
+        <v>61458.26637174295</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>834331.9888524263</v>
+        <v>803693.7069977613</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4166.375</v>
+        <v>4117.59619140625</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7021.250694329497</v>
+        <v>6822.988487592175</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5340.10633790698</v>
+        <v>5215.687050012986</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2420</v>
+        <v>2780</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6175.884066037348</v>
+        <v>5731.635308662991</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>283.09 - 116212.24</t>
+          <t>285.43 - 101514.38</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1577.171926774587</v>
+        <v>1540.481001391923</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17911.32327923913</v>
+        <v>17395.21409723082</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.51248741149902</v>
+        <v>18.43292999267578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.45657471171955</v>
+        <v>46.89607518415457</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.45405833305609</v>
+        <v>27.25290656747213</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.71003557489121</v>
+        <v>62.78421464223218</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.52 - 2867.69</t>
+          <t>0.36 - 1174.41</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.797338328398779</v>
+        <v>4.881152460625398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.4537376466627</v>
+        <v>152.6799296073481</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>238.7088623046875</v>
+        <v>234.3913116455078</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.617752790404877e+63</v>
+        <v>-1.057870934057657e+66</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-2.226131474207417e+21</v>
+        <v>1.964079495682482e+21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.425531071885953e+66</v>
+        <v>-3.974901569328223e+70</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.078092764981178e+65</v>
+        <v>4.928883937031592e+68</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-3425531071885953234339505353718097820665660041706834646436264542208.00 - 20470278742825281251423113362556562165555367000343866213843377061888.00</t>
+          <t>-39749015693282229326766111323213317027785733506363117472802717617356800.00 - 29144741732539687263518772392414754580333314066124187479213860431331328.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.097105345233429e+50</v>
+        <v>-6.680758340363346e+49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.019834879976167e+50</v>
+        <v>2.005228291107983e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114095.84</v>
+        <v>113137.37</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305264.974228373</v>
+        <v>299870.3454520359</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226081.468688824</v>
+        <v>222683.0208931412</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89710</v>
+        <v>153360</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283590.7720576614</v>
+        <v>275804.1396068574</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15197.28 - 6412735.65</t>
+          <t>11013.51 - 6531944.26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61458.26637174295</v>
+        <v>60207.52780143813</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>803693.7069977613</v>
+        <v>793234.497801583</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4117.59619140625</v>
+        <v>3993.1748046875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6822.988487592175</v>
+        <v>6594.560139225398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5215.687050012986</v>
+        <v>5028.247169562654</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2780</v>
+        <v>2240</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5731.635308662991</v>
+        <v>5653.304938473686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>285.43 - 101514.38</t>
+          <t>273.65 - 81939.52</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1540.481001391923</v>
+        <v>1506.900992155568</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17395.21409723082</v>
+        <v>16816.69181187831</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.43292999267578</v>
+        <v>17.96022796630859</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89607518415457</v>
+        <v>45.9288034694345</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.25290656747213</v>
+        <v>26.34996232674915</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.78421464223218</v>
+        <v>62.10300747585196</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.36 - 1174.41</t>
+          <t>0.74 - 1557.82</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.881152460625398</v>
+        <v>4.740646342954867</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.6799296073481</v>
+        <v>149.9765266275714</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>234.3913116455078</v>
+        <v>228.020523071289</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.057870934057657e+66</v>
+        <v>-1.223024366288807e+63</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.964079495682482e+21</v>
+        <v>-2.147889484459498e+21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.974901569328223e+70</v>
+        <v>-2.40450171056629e+67</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.928883937031592e+68</v>
+        <v>2.61575116292143e+65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-39749015693282229326766111323213317027785733506363117472802717617356800.00 - 29144741732539687263518772392414754580333314066124187479213860431331328.00</t>
+          <t>-24045017105662902183216552839908128396354922953751039098309314609152.00 - 10105419109443202860787532364274004293029231212505445179100994994176.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.680758340363346e+49</v>
+        <v>-6.522997293303959e+49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.005228291107983e+50</v>
+        <v>5.43559122419461e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113137.37</v>
+        <v>111028.17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299870.3454520359</v>
+        <v>296180.9058674633</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222683.0208931412</v>
+        <v>218758.7501987876</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153360</v>
+        <v>72150</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275804.1396068574</v>
+        <v>269190.9978721184</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11013.51 - 6531944.26</t>
+          <t>12935.51 - 4258847.79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60207.52780143813</v>
+        <v>60910.20265256926</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>793234.497801583</v>
+        <v>791561.6009522305</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3993.1748046875</v>
+        <v>3893.03857421875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6594.560139225398</v>
+        <v>6472.915785699332</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5028.247169562654</v>
+        <v>4876.19887526307</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2240</v>
+        <v>3180</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5653.304938473686</v>
+        <v>5638.926705436359</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>273.65 - 81939.52</t>
+          <t>286.08 - 92149.14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1506.900992155568</v>
+        <v>1458.41227041549</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16816.69181187831</v>
+        <v>16574.56222692173</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.96022796630859</v>
+        <v>17.78854370117188</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.9288034694345</v>
+        <v>46.07542958771236</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.34996232674915</v>
+        <v>26.7728797207731</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.10300747585196</v>
+        <v>62.41999809070904</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.74 - 1557.82</t>
+          <t>0.31 - 1309.52</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.740646342954867</v>
+        <v>4.648243844685713</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.9765266275714</v>
+        <v>149.1829722312823</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>228.020523071289</v>
+        <v>224.5749969482422</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.223024366288807e+63</v>
+        <v>-7.159395077440022e+63</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-2.147889484459498e+21</v>
+        <v>-2.656108050901607e+17</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.40450171056629e+67</v>
+        <v>-9.368384735457677e+67</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.61575116292143e+65</v>
+        <v>9.526622605781862e+65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-24045017105662902183216552839908128396354922953751039098309314609152.00 - 10105419109443202860787532364274004293029231212505445179100994994176.00</t>
+          <t>-93683847354576771989859671004646443852048732236812548513988373118976.00 - 16822828335144048078863653180528979841561283526607408308603831975936.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.522997293303959e+49</v>
+        <v>-9.253346549839561e+49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.43559122419461e+49</v>
+        <v>8.291674736177968e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111028.17</v>
+        <v>107891.67</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296180.9058674633</v>
+        <v>285859.1328915271</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218758.7501987876</v>
+        <v>212014.704951008</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72150</v>
+        <v>153870</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269190.9978721184</v>
+        <v>263708.3720198625</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12935.51 - 4258847.79</t>
+          <t>12319.04 - 5986012.99</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60910.20265256926</v>
+        <v>58574.82295388303</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>791561.6009522305</v>
+        <v>758900.2490411244</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3893.03857421875</v>
+        <v>3834.01904296875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6472.915785699332</v>
+        <v>6467.49001091443</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4876.19887526307</v>
+        <v>4872.12751433107</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3180</v>
+        <v>3060</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5638.926705436359</v>
+        <v>5665.610991260224</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>286.08 - 92149.14</t>
+          <t>255.16 - 71463.42</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1458.41227041549</v>
+        <v>1403.537915566024</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16574.56222692173</v>
+        <v>17010.28834301221</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.78854370117188</v>
+        <v>17.21303176879883</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.07542958771236</v>
+        <v>43.79777241794017</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.7728797207731</v>
+        <v>25.53514738161812</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.41999809070904</v>
+        <v>66.80197313733655</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.31 - 1309.52</t>
+          <t>0.49 - 3011.59</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.648243844685713</v>
+        <v>4.435492628084267</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.1829722312823</v>
+        <v>137.2206006219035</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>224.5749969482422</v>
+        <v>218.14013671875</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-7.159395077440022e+63</v>
+        <v>7.410646904973666e+66</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-2.656108050901607e+17</v>
+        <v>3.1257814037875e+19</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.368384735457677e+67</v>
+        <v>-1.731909896523854e+69</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.526622605781862e+65</v>
+        <v>7.598652172216511e+68</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-93683847354576771989859671004646443852048732236812548513988373118976.00 - 16822828335144048078863653180528979841561283526607408308603831975936.00</t>
+          <t>-1731909896523853725991762908692599237070333732874697753576551621853184.00 - 75970285458403277087821736546932214870385467103352118117687058103271424.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-9.253346549839561e+49</v>
+        <v>-1.166388722616077e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.291674736177968e+49</v>
+        <v>2.359081329995309e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107891.67</v>
+        <v>109580.01</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285859.1328915271</v>
+        <v>291336.8244233691</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212014.704951008</v>
+        <v>218075.6427569035</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153870</v>
+        <v>139760</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>263708.3720198625</v>
+        <v>251565.4005319821</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12319.04 - 5986012.99</t>
+          <t>6927.01 - 2744086.72</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58574.82295388303</v>
+        <v>60298.06982663766</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>758900.2490411244</v>
+        <v>782522.6738200631</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3834.01904296875</v>
+        <v>3874.005615234375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6467.49001091443</v>
+        <v>6383.693490694951</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4872.12751433107</v>
+        <v>4865.89021567123</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3060</v>
+        <v>2660</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5665.610991260224</v>
+        <v>5362.968299957995</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>255.16 - 71463.42</t>
+          <t>339.78 - 73936.66</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1403.537915566024</v>
+        <v>1454.431568982572</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17010.28834301221</v>
+        <v>16294.19753381278</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.21303176879883</v>
+        <v>17.35493469238281</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.79777241794017</v>
+        <v>45.11965645344336</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25.53514738161812</v>
+        <v>26.50555813609417</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.80197313733655</v>
+        <v>61.11323453071569</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.49 - 3011.59</t>
+          <t>0.62 - 1131.14</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.435492628084267</v>
+        <v>4.659728650591491</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.2206006219035</v>
+        <v>145.477344693155</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>218.14013671875</v>
+        <v>225.8272857666016</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.410646904973666e+66</v>
+        <v>1.820620680095911e+67</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.1257814037875e+19</v>
+        <v>6439419526732117</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.731909896523854e+69</v>
+        <v>-1.012077148641624e+70</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.598652172216511e+68</v>
+        <v>1.924398637155966e+69</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-1731909896523853725991762908692599237070333732874697753576551621853184.00 - 75970285458403277087821736546932214870385467103352118117687058103271424.00</t>
+          <t>-10120771486416241647162849926621234987602769577971906377500381908303872.00 - 192182168243106531417102370120257628883615287575346195230579365741854720.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.166388722616077e+50</v>
+        <v>-7.87029384523805e+49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.359081329995309e+50</v>
+        <v>1.219836487758791e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109580.01</v>
+        <v>110016.48</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291336.8244233691</v>
+        <v>291141.3864428112</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218075.6427569035</v>
+        <v>215689.649779315</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>139760</v>
+        <v>117870</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251565.4005319821</v>
+        <v>270633.2346903684</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6927.01 - 2744086.72</t>
+          <t>10891.27 - 5458603.13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60298.06982663766</v>
+        <v>59984.29314142248</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>782522.6738200631</v>
+        <v>766899.4677225515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3874.005615234375</v>
+        <v>3700.299560546875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6383.693490694951</v>
+        <v>6242.630214921519</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4865.89021567123</v>
+        <v>4735.273994250533</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2660</v>
+        <v>1940</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5362.968299957995</v>
+        <v>5395.958436860671</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>339.78 - 73936.66</t>
+          <t>296.18 - 75420.25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1454.431568982572</v>
+        <v>1366.885658425892</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16294.19753381278</v>
+        <v>16259.24000984614</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.35493469238281</v>
+        <v>15.9310359954834</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.11965645344336</v>
+        <v>39.75898149655781</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.50555813609417</v>
+        <v>23.12163801796095</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.11323453071569</v>
+        <v>54.26520240333706</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.62 - 1131.14</t>
+          <t>0.27 - 1182.29</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.659728650591491</v>
+        <v>4.188348481248026</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.477344693155</v>
+        <v>126.8176506941662</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>225.8272857666016</v>
+        <v>210.404052734375</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.820620680095911e+67</v>
+        <v>2.539424766605392e+63</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6439419526732117</v>
+        <v>-7.803494826054783e+21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.012077148641624e+70</v>
+        <v>-1.994719923436614e+66</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.924398637155966e+69</v>
+        <v>2.072594587775902e+65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-10120771486416241647162849926621234987602769577971906377500381908303872.00 - 192182168243106531417102370120257628883615287575346195230579365741854720.00</t>
+          <t>-1994719923436614256924007320320248086623431781477020134174342774784.00 - 16656148771699389731084960314824244021938316345579707035761088921600.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-7.87029384523805e+49</v>
+        <v>-2.338921401679996e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.219836487758791e+50</v>
+        <v>1.597732934667126e+50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110016.48</v>
+        <v>106325.49</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291141.3864428112</v>
+        <v>282203.2950514787</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215689.649779315</v>
+        <v>208409.1271549925</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117870</v>
+        <v>79570</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270633.2346903684</v>
+        <v>258328.8530421463</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10891.27 - 5458603.13</t>
+          <t>9460.75 - 5123775.41</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59984.29314142248</v>
+        <v>56877.29156049286</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>766899.4677225515</v>
+        <v>754438.5132930322</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3700.299560546875</v>
+        <v>3481.20947265625</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6242.630214921519</v>
+        <v>5764.863387757168</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4735.273994250533</v>
+        <v>4386.686878110805</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1940</v>
+        <v>2890</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5395.958436860671</v>
+        <v>5006.713852759236</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>296.18 - 75420.25</t>
+          <t>296.77 - 92276.55</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1366.885658425892</v>
+        <v>1280.653338494719</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16259.24000984614</v>
+        <v>14873.50442296693</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.9310359954834</v>
+        <v>14.98814868927002</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.75898149655781</v>
+        <v>37.03959479375531</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23.12163801796095</v>
+        <v>22.18817988582671</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.26520240333706</v>
+        <v>47.02797169858533</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.27 - 1182.29</t>
+          <t>0.55 - 595.67</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.188348481248026</v>
+        <v>3.92331785294151</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126.8176506941662</v>
+        <v>120.7363244501484</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>210.404052734375</v>
+        <v>195.8951263427734</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.539424766605392e+63</v>
+        <v>6.353490253822056e+60</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-7.803494826054783e+21</v>
+        <v>5.308588378331814e+17</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.994719923436614e+66</v>
+        <v>-2.366247706067515e+64</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.072594587775902e+65</v>
+        <v>7.463435382285337e+62</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-1994719923436614256924007320320248086623431781477020134174342774784.00 - 16656148771699389731084960314824244021938316345579707035761088921600.00</t>
+          <t>-23662477060675150516936237298562492203263834803505278538318086144.00 - 55094934279464813303762286498317011262645753203300156673989017600.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.338921401679996e+50</v>
+        <v>-1.165584926368414e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.597732934667126e+50</v>
+        <v>7.186210761276914e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106325.49</v>
+        <v>101111.01</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>282203.2950514787</v>
+        <v>267682.1095404571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208409.1271549925</v>
+        <v>196810.630624054</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79570</v>
+        <v>116280</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258328.8530421463</v>
+        <v>261385.5321146098</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9460.75 - 5123775.41</t>
+          <t>12444.82 - 9710827.64</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56877.29156049286</v>
+        <v>55257.22902383695</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>754438.5132930322</v>
+        <v>710729.8346087306</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3481.20947265625</v>
+        <v>3277.278076171875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5764.863387757168</v>
+        <v>5321.231424242454</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4386.686878110805</v>
+        <v>4023.927940758894</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2890</v>
+        <v>2630</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5006.713852759236</v>
+        <v>4588.973838200138</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>296.77 - 92276.55</t>
+          <t>185.68 - 72703.50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1280.653338494719</v>
+        <v>1199.636962247815</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14873.50442296693</v>
+        <v>13541.2170062181</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.98814868927002</v>
+        <v>14.57057666778564</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.03959479375531</v>
+        <v>35.89998520580677</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.18817988582671</v>
+        <v>21.17915384072073</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.02797169858533</v>
+        <v>47.53781005908353</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.55 - 595.67</t>
+          <t>0.28 - 800.24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.92331785294151</v>
+        <v>3.895135976484147</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.7363244501484</v>
+        <v>112.8888702612444</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>195.8951263427734</v>
+        <v>195.5719909667969</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.353490253822056e+60</v>
+        <v>1.420663837995104e+62</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.308588378331814e+17</v>
+        <v>1.339866275835342e+16</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.366247706067515e+64</v>
+        <v>-3.153236950771301e+63</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.463435382285337e+62</v>
+        <v>1.02109850028879e+64</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-23662477060675150516936237298562492203263834803505278538318086144.00 - 55094934279464813303762286498317011262645753203300156673989017600.00</t>
+          <t>-3153236950771301204910186391229259061751436361729519000546705408.00 - 901716641042821966787859468559484095205854997893298310090833526784.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.165584926368414e+50</v>
+        <v>-6.531985016509559e+49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.186210761276914e+49</v>
+        <v>8.1939768726913e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101111.01</v>
+        <v>103804.4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267682.1095404571</v>
+        <v>277185.1242923493</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196810.630624054</v>
+        <v>203281.3663016697</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116280</v>
+        <v>85790</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261385.5321146098</v>
+        <v>257073.3702341954</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12444.82 - 9710827.64</t>
+          <t>6151.03 - 4946980.43</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55257.22902383695</v>
+        <v>56395.85623905942</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>710729.8346087306</v>
+        <v>750006.245821782</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3277.278076171875</v>
+        <v>3397.9208984375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5321.231424242454</v>
+        <v>5624.695031409822</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4023.927940758894</v>
+        <v>4271.775247820091</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2630</v>
+        <v>2340</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4588.973838200138</v>
+        <v>4704.279904168029</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>185.68 - 72703.50</t>
+          <t>208.44 - 65427.64</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1199.636962247815</v>
+        <v>1276.29771118958</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13541.2170062181</v>
+        <v>14282.08228840685</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.57057666778564</v>
+        <v>14.89930152893066</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.89998520580677</v>
+        <v>37.656569975511</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.17915384072073</v>
+        <v>21.79678003672841</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.53781005908353</v>
+        <v>54.16185806074056</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.28 - 800.24</t>
+          <t>0.33 - 1539.18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.895135976484147</v>
+        <v>3.84940221734833</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.8888702612444</v>
+        <v>121.6414780671569</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>195.5719909667969</v>
+        <v>200.5388641357422</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.420663837995104e+62</v>
+        <v>-2.234466217722773e+63</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.339866275835342e+16</v>
+        <v>-1.14581660753754e+18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.153236950771301e+63</v>
+        <v>-3.489688021493745e+67</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.02109850028879e+64</v>
+        <v>3.718216701966056e+65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-3153236950771301204910186391229259061751436361729519000546705408.00 - 901716641042821966787859468559484095205854997893298310090833526784.00</t>
+          <t>-34896880214937445646046014686065331247749557561465044641083723612160.00 - 12834074582414309937988696713468569774058893790482193121740534579200.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.531985016509559e+49</v>
+        <v>-9.58328259168312e+49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.1939768726913e+49</v>
+        <v>5.657307872513805e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103804.4</v>
+        <v>101257.16</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>277185.1242923493</v>
+        <v>273209.1121741423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203281.3663016697</v>
+        <v>201301.0440672647</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85790</v>
+        <v>98860</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257073.3702341954</v>
+        <v>251597.1104881725</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6151.03 - 4946980.43</t>
+          <t>10067.83 - 4549537.96</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56395.85623905942</v>
+        <v>54465.21843838847</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>750006.245821782</v>
+        <v>737335.9133851243</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3397.9208984375</v>
+        <v>3278.149169921875</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5624.695031409822</v>
+        <v>5419.770312082176</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4271.775247820091</v>
+        <v>4098.349553263639</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2340</v>
+        <v>2370</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4704.279904168029</v>
+        <v>4591.793728791872</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>208.44 - 65427.64</t>
+          <t>204.21 - 79506.40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1276.29771118958</v>
+        <v>1213.966078413813</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14282.08228840685</v>
+        <v>13873.5211531663</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.89930152893066</v>
+        <v>14.73027038574219</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.656569975511</v>
+        <v>36.6973379936131</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.79678003672841</v>
+        <v>21.4724660172721</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.16185806074056</v>
+        <v>48.725524479808</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.33 - 1539.18</t>
+          <t>0.32 - 948.97</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.84940221734833</v>
+        <v>3.669874988250819</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.6414780671569</v>
+        <v>118.7496566683334</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>200.5388641357422</v>
+        <v>197.2553405761719</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-2.234466217722773e+63</v>
+        <v>-4.793655182730503e+63</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.14581660753754e+18</v>
+        <v>2.281789901728532e+18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.489688021493745e+67</v>
+        <v>-6.358067403529983e+67</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.718216701966056e+65</v>
+        <v>6.459553502001934e+65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34896880214937445646046014686065331247749557561465044641083723612160.00 - 12834074582414309937988696713468569774058893790482193121740534579200.00</t>
+          <t>-63580674035299831040969072794086693986740644564040273914164531953664.00 - 10025424470486656310689741578591769114735098563776118467033963692032.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-9.58328259168312e+49</v>
+        <v>-1.021160426456435e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.657307872513805e+49</v>
+        <v>9.982377317414294e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273209.1121741423</v>
+        <v>268683.791151344</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201301.0440672647</v>
+        <v>199804.3706290384</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98860</v>
+        <v>248750</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251597.1104881725</v>
+        <v>243724.8854130754</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10067.83 - 4549537.96</t>
+          <t>9812.40 - 4784077.17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54465.21843838847</v>
+        <v>54781.67653784871</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737335.9133851243</v>
+        <v>697400.8968855285</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5419.770312082176</v>
+        <v>5376.637172390905</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4098.349553263639</v>
+        <v>4100.13763853803</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2370</v>
+        <v>2060</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4591.793728791872</v>
+        <v>4630.559122737731</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>204.21 - 79506.40</t>
+          <t>224.33 - 87335.65</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1213.966078413813</v>
+        <v>1183.758605450001</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13873.5211531663</v>
+        <v>14081.50026305647</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.6973379936131</v>
+        <v>35.90694259467976</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.4724660172721</v>
+        <v>21.13313934149981</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.725524479808</v>
+        <v>45.22839114133066</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.32 - 948.97</t>
+          <t>0.29 - 743.19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.669874988250819</v>
+        <v>3.89606018149855</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.7496566683334</v>
+        <v>116.1590432713991</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-4.793655182730503e+63</v>
+        <v>-9.092275475649286e+62</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.281789901728532e+18</v>
+        <v>-3.751998756666577e+19</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.358067403529983e+67</v>
+        <v>-6.636606127728793e+67</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.459553502001934e+65</v>
+        <v>8.764108812625269e+65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-63580674035299831040969072794086693986740644564040273914164531953664.00 - 10025424470486656310689741578591769114735098563776118467033963692032.00</t>
+          <t>-66366061277287927862059358966950454136444866641485336045003378524160.00 - 57240840976484393824754340210812445921628849048364997743124733231104.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.021160426456435e+50</v>
+        <v>-1.65932416971895e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.982377317414294e+49</v>
+        <v>5.495551671390996e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268683.791151344</v>
+        <v>273681.4465252806</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199804.3706290384</v>
+        <v>201098.5946651413</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>248750</v>
+        <v>99610</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243724.8854130754</v>
+        <v>258293.5068741882</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9812.40 - 4784077.17</t>
+          <t>9175.58 - 3458715.01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54781.67653784871</v>
+        <v>56434.97850818945</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>697400.8968855285</v>
+        <v>726328.3339291669</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5376.637172390905</v>
+        <v>5327.075979319881</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4100.13763853803</v>
+        <v>4073.168883322941</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2060</v>
+        <v>1610</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4630.559122737731</v>
+        <v>4570.437839286295</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>224.33 - 87335.65</t>
+          <t>197.47 - 76221.17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.758605450001</v>
+        <v>1168.558948365582</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14081.50026305647</v>
+        <v>13819.77517224347</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.90694259467976</v>
+        <v>36.67001395171447</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.13313934149981</v>
+        <v>21.56759622434513</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.22839114133066</v>
+        <v>49.4748873198536</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.29 - 743.19</t>
+          <t>0.55 - 849.49</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.89606018149855</v>
+        <v>3.803147945060522</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.1590432713991</v>
+        <v>118.5293119666603</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-9.092275475649286e+62</v>
+        <v>-3.363504775036935e+63</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.751998756666577e+19</v>
+        <v>8.529933344100456e+20</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.636606127728793e+67</v>
+        <v>-3.218536097123044e+67</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.764108812625269e+65</v>
+        <v>3.221606317934487e+65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-66366061277287927862059358966950454136444866641485336045003378524160.00 - 57240840976484393824754340210812445921628849048364997743124733231104.00</t>
+          <t>-32185360971230444691478661738208126743705698345738840157720305205248.00 - 11706987388418818795731411551754313051658544121649340671579914240.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.65932416971895e+50</v>
+        <v>-1.890236617931872e+50</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.495551671390996e+49</v>
+        <v>7.226137666123108e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273681.4465252806</v>
+        <v>267467.7162858994</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201098.5946651413</v>
+        <v>200687.8764608183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99610</v>
+        <v>50620</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258293.5068741882</v>
+        <v>234875.7841665925</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9175.58 - 3458715.01</t>
+          <t>13342.50 - 2653192.24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56434.97850818945</v>
+        <v>54272.89438684598</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>726328.3339291669</v>
+        <v>695850.6865030231</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5327.075979319881</v>
+        <v>5275.772084333004</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4073.168883322941</v>
+        <v>4011.616952944953</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1610</v>
+        <v>2100</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4570.437839286295</v>
+        <v>4519.046158541189</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>197.47 - 76221.17</t>
+          <t>161.83 - 80431.48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1168.558948365582</v>
+        <v>1206.268669382244</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13819.77517224347</v>
+        <v>13401.07325424542</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.67001395171447</v>
+        <v>36.51043624274394</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.56759622434513</v>
+        <v>21.1820174707926</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.4748873198536</v>
+        <v>51.31222216394272</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.55 - 849.49</t>
+          <t>0.52 - 1373.03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.803147945060522</v>
+        <v>3.683347016303383</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.5293119666603</v>
+        <v>116.958508299048</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.363504775036935e+63</v>
+        <v>-1.481578361334814e+65</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.529933344100456e+20</v>
+        <v>158779891393297.4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.218536097123044e+67</v>
+        <v>-1.295181029990354e+69</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.221606317934487e+65</v>
+        <v>1.308990761299206e+67</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-32185360971230444691478661738208126743705698345738840157720305205248.00 - 11706987388418818795731411551754313051658544121649340671579914240.00</t>
+          <t>-1295181029990354314454815494751683268217849008666238783040924757786624.00 - 3917178233082957467570451337860808297483597280400573678131169198080.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.890236617931872e+50</v>
+        <v>-3.77592658877783e+49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.226137666123108e+49</v>
+        <v>7.498974004115321e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_estadistica_descriptiva.xlsx
+++ b/data_cripto/montecarlo_estadistica_descriptiva.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267467.7162858994</v>
+        <v>269674.0748354853</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200687.8764608183</v>
+        <v>199813.870904442</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50620</v>
+        <v>131100</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234875.7841665925</v>
+        <v>243702.2835004225</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13342.50 - 2653192.24</t>
+          <t>7209.05 - 3264724.22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54272.89438684598</v>
+        <v>55416.1676321759</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>695850.6865030231</v>
+        <v>724404.1413457906</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5275.772084333004</v>
+        <v>5338.153781152152</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4011.616952944953</v>
+        <v>4044.179742848622</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2100</v>
+        <v>2980</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4519.046158541189</v>
+        <v>4536.621968380849</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161.83 - 80431.48</t>
+          <t>150.58 - 66772.58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1206.268669382244</v>
+        <v>1192.119106306315</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13401.07325424542</v>
+        <v>13941.30053811154</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.51043624274394</v>
+        <v>37.03857048194227</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.1820174707926</v>
+        <v>21.25870701510173</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.31222216394272</v>
+        <v>50.22956503478908</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.52 - 1373.03</t>
+          <t>0.44 - 766.99</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.683347016303383</v>
+        <v>3.905691973302372</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.958508299048</v>
+        <v>122.1221608205125</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.481578361334814e+65</v>
+        <v>1.52249520213078e+64</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>158779891393297.4</v>
+        <v>-2.134784232521902e+21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.295181029990354e+69</v>
+        <v>-1.38198990626604e+65</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.308990761299206e+67</v>
+        <v>1.495161100651724e+66</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-1295181029990354314454815494751683268217849008666238783040924757786624.00 - 3917178233082957467570451337860808297483597280400573678131169198080.00</t>
+          <t>-138198990626603979952732278994929978618219867461409497400379179008.00 - 149494945683224379630480352097171917509000884204767141249572472356864.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.77592658877783e+49</v>
+        <v>-8.04719587842503e+49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.498974004115321e+49</v>
+        <v>6.443602765342601e+49</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
